--- a/마사회제목.xlsx
+++ b/마사회제목.xlsx
@@ -50,9 +50,6 @@
     <t>[포토뉴스] 영천 숙원 경마공원 기공 축포 2026년 문연다</t>
   </si>
   <si>
-    <t>거제1동, "뽀송뽀송 빨래방에서 마음까지 깨끗해져요"</t>
-  </si>
-  <si>
     <t>영천경마공원 13년만에 첫 삽</t>
   </si>
   <si>
@@ -62,21 +59,12 @@
     <t>尹 대통령, 김문수 신임 경사노위원장 임명장 수여 [포토타임]</t>
   </si>
   <si>
-    <t>제주 범죄피해자에 2520만원 '지원'</t>
-  </si>
-  <si>
     <t>경마장으로 캠핑오세요</t>
   </si>
   <si>
-    <t>한국마사회, 부패취약 분야 점검 '반부패 청렴 Month' 시행</t>
-  </si>
-  <si>
     <t>고창 출신 이정연 작가, 제10회 수림문학상 수상</t>
   </si>
   <si>
-    <t>한국마사회 렛츠런파크 서울,'렛츠런 캠핑파크' 10월 1일부터 23일까지 매주 토 일 개최</t>
-  </si>
-  <si>
     <t>[단독]농식품부 산하 공공기관 정원 400명 줄인다</t>
   </si>
   <si>
@@ -86,12 +74,6 @@
     <t>“말이 달리고 싶어하는 편자 만드는 게 꿈”</t>
   </si>
   <si>
-    <t>영암군-농어촌청소년육성재단, 청소년 활동 지원 '맞손'</t>
-  </si>
-  <si>
-    <t>한국마사회, 문화센터 '4학기 수강생 모집'</t>
-  </si>
-  <si>
     <t>마사회 창원지사 문화강좌 수강생 모집</t>
   </si>
   <si>
@@ -140,18 +122,12 @@
     <t>한국마사회 창원지사, 10월 6일까지 문화강좌 신규 회원 모집</t>
   </si>
   <si>
-    <t>한국마사회, 21일부터 25일까지 '제16회 농림부장관배 승마대회' 등 각종 행사 개최</t>
-  </si>
-  <si>
     <t>17세 최연소 장제사 합격자 나왔다</t>
   </si>
   <si>
     <t>‘의료 부동산 연금’ 등 공공 데이터 특허, 민간에 개방한다</t>
   </si>
   <si>
-    <t>최상대 차관 "한전KDN, YTN 지분 매각? 구체적 논의 없었다"</t>
-  </si>
-  <si>
     <t>문화강좌 늘었어요  한국마사회 창원지사 문화센터 수강생 모집</t>
   </si>
   <si>
@@ -173,9 +149,6 @@
     <t>“2024 부산세계탁구선수권대회 북한 초청”</t>
   </si>
   <si>
-    <t>한국마사회, 경주마 도핑검사 '국제숙련도시험' 100% 적중</t>
-  </si>
-  <si>
     <t>최민철, 제주도선수단 첫 금메달 선물</t>
   </si>
   <si>
@@ -191,21 +164,12 @@
     <t>부산경남경마공원 18년 경력 말관리사, 조교사가 되다.</t>
   </si>
   <si>
-    <t>가축과 AI의 접목 세계 유일 '축산 데이터톤' 11월 열린다</t>
-  </si>
-  <si>
     <t>2024년 부산 탁구대회 개최 북측 선수단 초청 추진</t>
   </si>
   <si>
     <t>썰매타고 경마하고 쇼핑에 단풍놀이까지... 하루 종일도 즐길 수 있다! 부산경남경마공원 가을나들이</t>
   </si>
   <si>
-    <t>'썰매타고 쇼핑에 단풍놀이까지..' 부산경남경마공원 가을나들이 명소로</t>
-  </si>
-  <si>
-    <t>"제주 치안 거버넌스 구축"</t>
-  </si>
-  <si>
     <t>경주퇴역마 10마리 중 6마리는 버려져</t>
   </si>
   <si>
@@ -224,12 +188,6 @@
     <t>최근 5년간 경주퇴역마 7132두 용도미정, 폐사처리 61%</t>
   </si>
   <si>
-    <t>한국마사회, 국내 농가 대상 경주마 '닉스고' 무상 교배 지원</t>
-  </si>
-  <si>
-    <t>한국마사회, 과천축제 기간 시민회관서 '말박물관 체험 프로그램' 운영</t>
-  </si>
-  <si>
     <t>제주경찰청, 범죄피해자 경제적 지원 업무협약 체결</t>
   </si>
   <si>
@@ -239,21 +197,12 @@
     <t>강원랜드, 한전KPS와 반부패 청렴문화 확산 위한 업무협약 체결</t>
   </si>
   <si>
-    <t>한국마사회, 세계최고 경주마 '닉스고' 무상 교배 지원 실시</t>
-  </si>
-  <si>
     <t>한국마사회, 사회공익 직군에 힐링승마 확대 일반국민 체험자도 모집</t>
   </si>
   <si>
-    <t>전남, 인터넷 불법 경마 금액 전국 3번째 '불명예'</t>
-  </si>
-  <si>
     <t>농업분야 국회 뉴스_2022091516</t>
   </si>
   <si>
-    <t>김희수 도의원 "제5 경마공원 전북에 유치해야"</t>
-  </si>
-  <si>
     <t>신정훈 “경마, 코로나 이전 상황 회복 사행성 방지 조치를”</t>
   </si>
   <si>
@@ -308,9 +257,6 @@
     <t>국제경마경주서 한국 경주마 2연패</t>
   </si>
   <si>
-    <t>한국마사회 부산연제지사, ‘사랑의 전통시장종합선물꾸러미'지원 기부금 지원</t>
-  </si>
-  <si>
     <t>한국마사회 부산연제지사, 어려운 이웃에 1000만원 추석 종합선물 꾸러미 전해</t>
   </si>
   <si>
@@ -338,36 +284,18 @@
     <t>부경경마공원, 취약계층 한가위물품 구매 지원</t>
   </si>
   <si>
-    <t>과천시, '축제' 지역기업 후원금 전달 이어져 환경에너지솔루션 3천만 원 전달</t>
-  </si>
-  <si>
     <t>[기고] 질주하는 말에서 영천의 미래를 찾다</t>
   </si>
   <si>
     <t>부산경남경마공원, 추석맞이 취약계층 ‘한가위 맞이 농축산물’ 전달</t>
   </si>
   <si>
-    <t>경마에 90% 쏠린 'K-말산업' 혁신한다 마사회 손잡은 스타트업</t>
-  </si>
-  <si>
-    <t>'알박기 인사' 논란 농어촌공사, 감사원 감사 이어 부산지방국세청 세무조사 받는다</t>
-  </si>
-  <si>
-    <t>부산경남경마공원, 추석맞이 취약계층 '한가위 맞이 농축산물' 전달</t>
-  </si>
-  <si>
     <t>부산경남경마공원, 추석맞이 취약계층에 농축산물 전달</t>
   </si>
   <si>
-    <t>한국마사회, 3년만에 돌아온 '코리아컵' 전야제 실시</t>
-  </si>
-  <si>
     <t>[경마] 코리아컵 전야제 이어 4일 열전 돌입</t>
   </si>
   <si>
-    <t>한국마사회, 추석맞이 송편 나눔...따뜻한 마음 '나눔'</t>
-  </si>
-  <si>
     <t>두바이월드컵 결승진출 국산 경주마 ‘돌콩’ 코리아컵서 3년만에 복귀</t>
   </si>
   <si>
@@ -392,18 +320,12 @@
     <t>부경경마공원 이동형 ICT 경마승마 체험관 인기몰이</t>
   </si>
   <si>
-    <t>한국마사회, 세계 경마인의 대축제 '코리아컵' 온 오프라인 실시</t>
-  </si>
-  <si>
     <t>장수군 “모두 함께 따뜻한 추석 명절”</t>
   </si>
   <si>
     <t>마지막 경기 “우승하고 떠나요”  제2회 Rookie Stakes@부경, 샛별 마 ‘판타스틱킹덤’ 페로비치 기수 1위</t>
   </si>
   <si>
-    <t>Rookie Stakes@부경, '판타스틱킹덤' 우승</t>
-  </si>
-  <si>
     <t>부산경남경마공원, 제2회 Rookie Stakes@부경 개최 ‘판타스틱킹덤’과 페로비치 기수 우승</t>
   </si>
   <si>
@@ -416,21 +338,12 @@
     <t>영천경마공원 기공식 30일 개최</t>
   </si>
   <si>
-    <t>"미래 유망직업은"...과천시 청소년 진로 박람회 성료</t>
-  </si>
-  <si>
     <t>한국마사회 4일 ‘코리아컵’ 숏츠 영상 공개, 방문인증 이벤트도</t>
   </si>
   <si>
     <t>휴비즈, 2022년 ‘소셜아이어워드 대상 포함 총 4관왕’ 등극</t>
   </si>
   <si>
-    <t>여당이 찍은 곳 대규모 감사 예고 '표적 감사' 논란</t>
-  </si>
-  <si>
-    <t>[단독] '문 정부 기관장' 솎아내기? 여당이 찍은 곳 대규모 감사</t>
-  </si>
-  <si>
     <t>방위사업청, 2027년까지 과천→대전 이전 확정</t>
   </si>
   <si>
@@ -446,12 +359,6 @@
     <t>마사회, 조직문화 개선에 발 벗고 나서</t>
   </si>
   <si>
-    <t>부경경마공원 소상공인 지원 '소셜창업마켓' 운영</t>
-  </si>
-  <si>
-    <t>한국마사회, 청렴 가치 확산 '온택트 청렴릴레이' 실시</t>
-  </si>
-  <si>
     <t>양주시 승마장, 한국마사회 주관 기승능력인증제 실시</t>
   </si>
   <si>
@@ -467,9 +374,6 @@
     <t>[공공기관 뉴스] 한국마사회 ‘말마’ 캐릭터 인기 친근함으로 기획</t>
   </si>
   <si>
-    <t>한국마사회, 매월 '상호존중의 날' 맞아 다양한 조직문화 개선 활동 진행</t>
-  </si>
-  <si>
     <t>대한적십자사, 한국마사회 지원 통해 유기동물 보호 활동 펼쳐</t>
   </si>
   <si>
@@ -479,21 +383,12 @@
     <t>[바로간다] 폐목장에 버려진 경주마들 마지막 주인은 도축업자?</t>
   </si>
   <si>
-    <t>부산경남경마공원 플리마켓에 주말나들이객 '북적'</t>
-  </si>
-  <si>
     <t>부산경남경마공원, 소상공인 판로 지원 ‘소셜창업마켓’ 열어</t>
   </si>
   <si>
-    <t>한국마사회, '2022 글로벌 헬스케어 위크’참여 이동형 ICT 경마승마 체험관 인기</t>
-  </si>
-  <si>
     <t>부산경남경마공원 ‘소셜창업마켓’ 개최, 11월 6일까지 매주 일요일 운영</t>
   </si>
   <si>
-    <t>부산경남경마공원 "소셜창업마켓 구경오세요"..11월 6일까지 매주 일요일 운영</t>
-  </si>
-  <si>
     <t>한국사 자격시험 年 51만명 이젠 수능보다 많이 본다</t>
   </si>
   <si>
@@ -506,9 +401,6 @@
     <t>마사회 “서울경마공원 합숙소 복지관으로 바꾼다”</t>
   </si>
   <si>
-    <t>한국마사회, 업무편의 복지관 '리모델링' 본격 실시</t>
-  </si>
-  <si>
     <t>지역상생 위해  한국마사회 부산연제지사 KT&amp;G 동래지사, 업무협약 체결</t>
   </si>
   <si>
@@ -557,12 +449,6 @@
     <t>한국마사회 부산경남경마공원, 발달장애 이웃 인식 개선을 위한 지원금 전달</t>
   </si>
   <si>
-    <t>영천경마공원 내달 '첫 삽'</t>
-  </si>
-  <si>
-    <t>고양시 대화노인종합복지관, 취약계층 생활형 디지털 교육 추진 "키오스크 사용법 배워가세요"</t>
-  </si>
-  <si>
     <t>한국마사회 부산경남경마공원, 발달장애인 여름여행 지원</t>
   </si>
   <si>
@@ -581,9 +467,6 @@
     <t>한국마사회, 집중호우 피해지역 복구 지원 5000만원 성금 기부</t>
   </si>
   <si>
-    <t>한국마사회, 레저산업 최초 '감사협의회' 구성</t>
-  </si>
-  <si>
     <t>영천경마공원 1단계 건설공사 내달 첫 삽 뜬다</t>
   </si>
   <si>
@@ -596,12 +479,6 @@
     <t>한국마사회, 집중피해 호우 복구 봉사활동 성금 5천만 원 기부</t>
   </si>
   <si>
-    <t>[인터뷰] 이민근 안산시장 "창의적 아이디어 도전 대한민국 대표 청년도시 만들 것"</t>
-  </si>
-  <si>
-    <t>한국마사회 등 4개 레저산업 공공기관, 최초로 '감사협의회' 발족</t>
-  </si>
-  <si>
     <t xml:space="preserve">경복대 4개학과 신설 안전보건, 반려동물, 빅데이터 </t>
   </si>
   <si>
@@ -629,27 +506,18 @@
     <t>영천시 신성장 핵심, ‘경마공원’</t>
   </si>
   <si>
-    <t>경북 '영천경마공원' 9월 첫 삽 후보지 선정 이후 13년 만</t>
-  </si>
-  <si>
     <t>한국마사회, 영천경마공원 9월 1일 착공 2026년 준공</t>
   </si>
   <si>
     <t>한국마사회 경마방송 음원공모전 개최</t>
   </si>
   <si>
-    <t>국제 경주 '코리아컵' 2주 앞...국내 vs 해외 경주마 뜨거운 격돌</t>
-  </si>
-  <si>
     <t>한국마사회 부산경남본부, 경마방송 음원 공모전</t>
   </si>
   <si>
     <t>한국마사회 부산동구지사, 취약계층 퇴원환자에 ‘건강든든패키지’ 500만원 쾌척</t>
   </si>
   <si>
-    <t>한국마사회, 전국민 대상 '경마방송 음원공모전' 개최 22일부터 접수</t>
-  </si>
-  <si>
     <t>부산경남경마공원 권승주 조교사, 개인 통산 400승 달성</t>
   </si>
   <si>
@@ -659,9 +527,6 @@
     <t>마사회, 우수 승마시설 그린승마존 협약식 가져</t>
   </si>
   <si>
-    <t>한국마사회, '그린승마존' 협약으로 국내 승마시설 수준 상향 예고</t>
-  </si>
-  <si>
     <t>레저 넘어 재활 치유 승마까지 다룬다</t>
   </si>
   <si>
@@ -686,9 +551,6 @@
     <t>한국마사회 청렴릴레이로 청렴 문화와 공감대 UP!</t>
   </si>
   <si>
-    <t>한국마사회, 21일까지 화훼농가 상생 위한 '야간수국축제' 개최</t>
-  </si>
-  <si>
     <t>공공기관장 70% 文정부때 임명 경영평가 내세워 사퇴 압박</t>
   </si>
   <si>
@@ -713,18 +575,12 @@
     <t>한국마사회, 안전보건경영시스템(ISO45001) 구축 선포식</t>
   </si>
   <si>
-    <t>"안전한 경마공원에서 고객과 함께합니다"</t>
-  </si>
-  <si>
     <t>마사회 인천중구지사 인근 식당 상생쿠폰 발행</t>
   </si>
   <si>
     <t>[경마] 이홍락 기수 데뷔 “말타기 싫어 도망다녔다”</t>
   </si>
   <si>
-    <t>행정시장 인사청문회도 '역시' 되나</t>
-  </si>
-  <si>
     <t>한국마사회, 하반기 장식할 승부처 미리보기 실시</t>
   </si>
   <si>
@@ -761,9 +617,6 @@
     <t>노동계 “노동이사제, 기재부가 권한 축소”</t>
   </si>
   <si>
-    <t>공공기관 노동이사제 4일부터 시행 노동계 "기재부가 권한 축소"</t>
-  </si>
-  <si>
     <t>부경경마공원, 민.관.공 협업으로 지역문제 해결한다</t>
   </si>
   <si>
@@ -788,12 +641,6 @@
     <t>부산경남경마공원, 경마현장 안전보건 교육</t>
   </si>
   <si>
-    <t>정부코드 맞춘다(?) 마사회-노조 "경마산업 발전" 공동선언</t>
-  </si>
-  <si>
-    <t>한국마사회, '노사 ESG 경영 공동선언' 경마산업 상생 실시</t>
-  </si>
-  <si>
     <t>한국마사회, 경영혁신위원회로 경영혁신 상시 체계 구축</t>
   </si>
   <si>
@@ -812,9 +659,6 @@
     <t>한국마사회 인천연수지사, 연수구 취약계층 먹거리 지원사업 동행</t>
   </si>
   <si>
-    <t>"안전한 승마" 한국마사회 전국 유소년 승마대회 개막</t>
-  </si>
-  <si>
     <t>한국마사회, 경마 해외송출 상반기 401억 매출 역대 최고 기록</t>
   </si>
   <si>
@@ -827,9 +671,6 @@
     <t>마사회 경영혁신위 10개과제 확정 조직역량↑</t>
   </si>
   <si>
-    <t>공공기관 '방만' 수술대에 "비핵심자산 팔고 간부 대폭 줄여라"</t>
-  </si>
-  <si>
     <t>부산경남경마공원, 고용노동부와 함께 경마현장 재해 예방위한 안전보건 교육 실시</t>
   </si>
   <si>
@@ -845,21 +686,9 @@
     <t>안산시청 윤현지, 순천만유도 女일반 78㎏급 ‘천하무적’</t>
   </si>
   <si>
-    <t>한국마사회, 역대 최고 실적 '국제방송실' 방문 실시</t>
-  </si>
-  <si>
-    <t>한국마사회, 오는 30일 31일 '제1회 한국마사회 유소년 승마대회' 개최</t>
-  </si>
-  <si>
-    <t>제15회 오너스컵 대상경주, '라온더파이터' 1위 탈환</t>
-  </si>
-  <si>
     <t>부산경남경마공원, 제15회 오너스컵 대상경주 ‘라온더파이터’의 1위 탈환!</t>
   </si>
   <si>
-    <t>해외 경마팬, 'K-경마'에 홀릭..마사회 영상 수출 대박</t>
-  </si>
-  <si>
     <t>제주도 정무부지사에 김희현 전 도의원 지명</t>
   </si>
   <si>
@@ -881,9 +710,6 @@
     <t>마사회 광주지사, 장애인활동지원사 교육비 전달</t>
   </si>
   <si>
-    <t>"한국마사회는 제주 마필관리사 직접 고용하라"</t>
-  </si>
-  <si>
     <t>예상대로...제주도, 민선8기 첫 정무부지사 행정시장 임용 후보자 지명</t>
   </si>
   <si>
@@ -935,15 +761,9 @@
     <t>한국마사회, 잊을 수 없는 그 순간 재조명</t>
   </si>
   <si>
-    <t>"3년 만에 가족 물놀이 즐겨요".. 경마공원 바닥분수 운영 재개</t>
-  </si>
-  <si>
     <t>부산경남경마공원 바닥분수 23일 재개</t>
   </si>
   <si>
-    <t>한국마사회, '청렴라이브 콘서트'로 청렴가치 확산</t>
-  </si>
-  <si>
     <t>전통시장 활성화 위해  한국마사회 부산동구지사, 범일2동 취약계층에 온누리상품권 500만원 지원</t>
   </si>
   <si>
@@ -953,9 +773,6 @@
     <t>부산경남경마공원 인기 물놀이시설 바닥분수, 23일 운영 재개</t>
   </si>
   <si>
-    <t>부산경남경마공원, 뜨거운 여름을 식혀 줄 '바닥분수' 23일부터 운영 재개</t>
-  </si>
-  <si>
     <t>부산경남경마공원, 간이 물놀이시설 바닥분수 3년만에 운영 재개</t>
   </si>
   <si>
@@ -968,9 +785,6 @@
     <t>한국거래소, 부산에 프로 1부 탁구단 창단</t>
   </si>
   <si>
-    <t>부경경마공원 "빅데이터로 경주마 바뀜 사고 막는다"</t>
-  </si>
-  <si>
     <t>한국마사회 부산동구지사, 사랑의열매에 성금 전달</t>
   </si>
   <si>
@@ -992,21 +806,9 @@
     <t>마사회 부산경남경마공원 “빅테이터로 경주마 바뀜 사고 막는다”</t>
   </si>
   <si>
-    <t>부산경남경마공원 "빅테이터로 경주마 바뀜 막는다"</t>
-  </si>
-  <si>
     <t>빅테이터로 경주마 ‘바뀜 사고’ 막는다  한국마사회 부산경남경마공원, ‘개체식별 모니터링 시스템’ 도입</t>
   </si>
   <si>
-    <t>LH, 비상경영체제 돌입 '부채감축' 주력</t>
-  </si>
-  <si>
-    <t>'부산출신 최고스타' 유남규 감독, 신생 한국거래소 탁구팀 사령탑 선임</t>
-  </si>
-  <si>
-    <t>'韓경마 100년 결실' 코리아컵 3년 만에 돌아온다</t>
-  </si>
-  <si>
     <t>5년간 늘린 공공기관 인력 기능 전수조사 신규채용 줄어든다</t>
   </si>
   <si>
@@ -1067,15 +869,6 @@
     <t>한국마사회, 경마비위 특별자수기간 운영</t>
   </si>
   <si>
-    <t>한국마사회 정기환 회장이 '상호 존중의 날' 맞아 직원들과 출근길 인사</t>
-  </si>
-  <si>
-    <t>[즐거운 우리 학교] 동물 식품계열 특화학교 '화성 발안바이오과학고' 전국 인재들 몰려온다</t>
-  </si>
-  <si>
-    <t>검찰, 임종석 조국 '블랙리스트' 의혹 수사 본격화</t>
-  </si>
-  <si>
     <t>이주의 농업 산림 소식_2022071416</t>
   </si>
   <si>
@@ -1100,24 +893,12 @@
     <t>문재인 정부 때 공공기관 임직원 10만여 명 늘어 한국철도공사 3천529명 중가</t>
   </si>
   <si>
-    <t>인천국제공항공사, 대학생 입사희망 공기업 5년 연속 '1위'</t>
-  </si>
-  <si>
-    <t>청소근로자 생명까지 앗아간 무리수 '비정규직 제로' 정책 [여기는 논설실]</t>
-  </si>
-  <si>
     <t>한국마사회 2022년 신입사원 40명 채용</t>
   </si>
   <si>
-    <t>"文 정부 5년간 공공기관 임직원 수 10만명 늘어"</t>
-  </si>
-  <si>
     <t>文정부때 공공기관 인력 29% 증가 증가 인원 10만명 육박</t>
   </si>
   <si>
-    <t>문 정부때 공공기관 인력 30% 늘었다 "증가 인원 10만명 육박"</t>
-  </si>
-  <si>
     <t>신계용 과천시장 기관-사회단체 54곳방문 왜?</t>
   </si>
   <si>
@@ -1127,42 +908,21 @@
     <t>文정부 때 공공기관 증가 인원 10만명 육박 철도공사 증원 최다</t>
   </si>
   <si>
-    <t>장수군, ‘제6회 국산 어린 말 승마대회' 개최</t>
-  </si>
-  <si>
     <t>장수군, 제6회 국산 어린 말 승마대회 개최</t>
   </si>
   <si>
-    <t>"소통 메시지 전해" 신계용 과천시장, 관내 기관 및 사회단체 54곳 방문</t>
-  </si>
-  <si>
-    <t>한국마사회, 오는 22일까지 '2022년 신입사원 채용' 원서 접수</t>
-  </si>
-  <si>
-    <t>신계용 과천시장 "새로운 도약 위해 기관 단체 함께 협력해야"</t>
-  </si>
-  <si>
-    <t>신계용 과천시장, '소통하는 행정 실현' 위해 오는 15일까지 관내 기관 및 사회단체 54곳 방문</t>
-  </si>
-  <si>
     <t>한국마사회, 한국경마 100년 직무능력 신입사원 채용</t>
   </si>
   <si>
     <t>한국마사회, 신입사원 40명 채용 사무직 15명, 기술직 25명</t>
   </si>
   <si>
-    <t>마사회, 올해 신입사원 40명 채용 "투명성 공정성 강화"</t>
-  </si>
-  <si>
     <t>천안시 김창수 부성1동장 지역 내 정기후원자 방문</t>
   </si>
   <si>
     <t>마사회 3년 만에 신입공채</t>
   </si>
   <si>
-    <t>"3년만에 신입사원 채용" 마사회 올해 40명 뽑는다</t>
-  </si>
-  <si>
     <t>한국마사회 신입사원 40명채용 신청마감 22일</t>
   </si>
   <si>
@@ -1172,24 +932,12 @@
     <t>임종석-조국 관련 블랙리스트 의혹 수사 본격화</t>
   </si>
   <si>
-    <t>'유도샛별' 이현지 전도유도대회 3연패 달성</t>
-  </si>
-  <si>
     <t>지난 9일 제주경마공원서</t>
   </si>
   <si>
-    <t>중앙지검, 임종석 조국 '블랙리스트' 형사부에 재배당</t>
-  </si>
-  <si>
-    <t>검찰, 文 정부 블랙리스트 의혹 '반부패부→형사부' 재배당</t>
-  </si>
-  <si>
     <t>한국마사회 대구지사, 전통시장 활성화 사업 기부금 전달</t>
   </si>
   <si>
-    <t>[단독] "조국 임종석, 반부패부 아닌 형사부서 수사" 전방위 사정 예고</t>
-  </si>
-  <si>
     <t>[경마] 문병기 “소통 능한 조교사 꿈꾸며 달린다”</t>
   </si>
   <si>
@@ -1202,21 +950,12 @@
     <t>신종택 한국마사회 구리지사장, “지역민과 상생 소통하겠다”</t>
   </si>
   <si>
-    <t>한국마사회, 소통하는 조교사 '마방' 신장개업</t>
-  </si>
-  <si>
     <t>예산군, 4회 윤봉길배 전국오픈탁구대회 개최</t>
   </si>
   <si>
     <t>이주의 농업 산림 소식_2022070716</t>
   </si>
   <si>
-    <t>경기도, 사회적경제기업 판로 확대 '경사났네 판매대전' 개최</t>
-  </si>
-  <si>
-    <t>한국마사회 부산동구지사, "다양한 취업취약계층의 사회 진줄에 보탬이 되도록 할 것"</t>
-  </si>
-  <si>
     <t>창원특례시, 취약계층 위해 ‘창원의 신바람 시원한 여름나기 나눔 주간’ 운영</t>
   </si>
   <si>
@@ -1232,9 +971,6 @@
     <t>한국마사회 인천연수지사, 연수2동에 폭염대비 물품 후원</t>
   </si>
   <si>
-    <t>한국마사회, 경마 건전화 정착 위한 '건전화 실무 협의체' 운영</t>
-  </si>
-  <si>
     <t>[공공기관 뉴스] 한국마사회 ‘경마 건전화 실무협의체’ 운영</t>
   </si>
   <si>
@@ -1253,18 +989,9 @@
     <t>한국폴리텍대학 부산캠퍼스-한국마사회 부산동구지사 일자리 창출사업 선정 및 장학금 전달</t>
   </si>
   <si>
-    <t>'소주성' 주도한 홍장표도 '버티기' ‘적과의 동침’ 불편한 尹정부 [이슈+]</t>
-  </si>
-  <si>
-    <t>21세기 K-팝아트 '관우와 적토마'</t>
-  </si>
-  <si>
     <t>강자와 붙고 싶어 무대 넓힌 유도괴물 “이젠 올림픽이다”</t>
   </si>
   <si>
-    <t>"코로나19 대응 인력 재충전"</t>
-  </si>
-  <si>
     <t>C쇼크에 휘청인 말산업 ‘승마’로 다시 일으킨다</t>
   </si>
   <si>
@@ -1319,18 +1046,9 @@
     <t>[인사] 교육부 / 과학기술정보통신부 / 법제처 등</t>
   </si>
   <si>
-    <t>대전 코레일, 지난해 공기업 중 '징계 최다'</t>
-  </si>
-  <si>
     <t>[인사] 국무조정실 국무총리비서실 외</t>
   </si>
   <si>
-    <t>[단독] 정부, 호화청사 때리더니 이번엔 "자산 현황 다 내라"</t>
-  </si>
-  <si>
-    <t>부채비율 200% 넘는 공기업 '정조준' 자산매각 잇따를듯</t>
-  </si>
-  <si>
     <t>프라이빗하게 차 안에서!  부산경남경마공원, 드라이브스루 베팅존 시즌2 운영</t>
   </si>
   <si>
@@ -1370,27 +1088,18 @@
     <t>작년 공기업 징계 고발 665건...‘징계 최다’ 코레일</t>
   </si>
   <si>
-    <t>[공기UP, 현장에서]운동에 심리 치유까지 승마 '국민 스포츠' 되는 날</t>
-  </si>
-  <si>
     <t>백년둥이 한국경마 특별전 ‘인사동 나들이’</t>
   </si>
   <si>
     <t>제주경마공원 7 8월 금 토요일 야간경주 시행</t>
   </si>
   <si>
-    <t>작년 공기업 징계 고발 665건 '징계 최다' 코레일</t>
-  </si>
-  <si>
     <t>마사회, 경마장내 스마트폰 마권구매 ‘전자카드 앱’ 새 버전 출시</t>
   </si>
   <si>
     <t>부경경마공원 7~8월 금.토요일 야간경마 시행</t>
   </si>
   <si>
-    <t>한국마사회, 인사아트센터 '한국경마 100년 신바람 100선' 개최</t>
-  </si>
-  <si>
     <t>제1회 전북말산업복합센터 재활승마 경진대회 유소년 승마대회 성료</t>
   </si>
   <si>
@@ -1400,9 +1109,6 @@
     <t>광주승마 박주현, 장애물 경기서 우승</t>
   </si>
   <si>
-    <t>한국마사회, '한국경마 100년' 특별전시</t>
-  </si>
-  <si>
     <t>밀양 목장서 국내 첫 ‘암말 삼관마’</t>
   </si>
   <si>
@@ -1421,9 +1127,6 @@
     <t>“제주 말 아니었어?”, 육지 목장서 첫 ‘삼관마’ 배출  우승상금 8억5000만원 ‘잭팟’</t>
   </si>
   <si>
-    <t>"경영부진 책임 지겠다" 마사회, 성과급 반납 결정</t>
-  </si>
-  <si>
     <t>‘위너스맨’부산광역시장배 우승, 스테이어 시리즈 3관왕 등극!</t>
   </si>
   <si>
@@ -1436,18 +1139,12 @@
     <t>3관왕이 나타났다  부경 경주마 ‘위너스맨’ 부산시장배 우승, 스테이어 시리즈 석권</t>
   </si>
   <si>
-    <t>연봉 깎고, 땅 파는 공공기관 "정부 뜻대로 했다, 억울" 반발</t>
-  </si>
-  <si>
     <t>마사회 창원지사, 폴리텍대학에 취업장려금 710만원</t>
   </si>
   <si>
     <t>부산서 국내 첫 ‘암말 삼관왕’ 나왔다 ‘골든파워’, 트리플 티아라 시리즈 우승</t>
   </si>
   <si>
-    <t>경영평가 'D' 마사회, 회장 등 성과급 자율 반납</t>
-  </si>
-  <si>
     <t>한국마사회, 공공기관 경영평가 성과급 반납</t>
   </si>
   <si>
@@ -1463,9 +1160,6 @@
     <t>[공공기관 뉴스] 한국마사회, 경영평가 부진에 경영진 성과급 자율반납</t>
   </si>
   <si>
-    <t>"당신 덕분에 오늘도 안녕합니다"</t>
-  </si>
-  <si>
     <t>2년간 폐쇄 부산경남경마공원 썰매 승마체험장 등 전면 개방</t>
   </si>
   <si>
@@ -1493,9 +1187,6 @@
     <t>장수군-의성군 의용소방대연합회 교류 행사 개최</t>
   </si>
   <si>
-    <t>한국마사회, 100승 달성 '영광의미소' 정정희 기수</t>
-  </si>
-  <si>
     <t>한국마사회, 반려나무 나눔 사업을 통한 ESG 경영 실천</t>
   </si>
   <si>
@@ -1508,18 +1199,12 @@
     <t>이주의 농업 산림 소식_2022062317</t>
   </si>
   <si>
-    <t>한국마사회 렛츠런파크 서울서 '사회적경제 단기기획전'...경기도, 참여기업 모집</t>
-  </si>
-  <si>
     <t>아픈 마음 ‘토닥토닥’ 동물 매개 치유 첫발 딛다</t>
   </si>
   <si>
     <t>[단독]공기업 직원 늘리더니 1억 육박 1인당 영업이익, 작년 150만원</t>
   </si>
   <si>
-    <t>연봉 8천만원 '철밥통' 자본잠식 석탄公마저 따박따박 월급인상</t>
-  </si>
-  <si>
     <t>경기도, 한국마사회 ‘사회적경제 단기기획전’ 참가기업 모집</t>
   </si>
   <si>
@@ -1532,12 +1217,6 @@
     <t>경기도일자리재단, ‘사회적경제 공공구매’ 상담회 통해 일대일 상담 216건 진행</t>
   </si>
   <si>
-    <t>"올해 부경경마가 달라졌어요!"</t>
-  </si>
-  <si>
-    <t>한국마사회, 기수 초청 '한국경마 100년 기념 특별전'</t>
-  </si>
-  <si>
     <t>尹, 공공기관 ‘방만 경영’ 지적 “부채 급증해도 조직 인력 크게 늘어”</t>
   </si>
   <si>
@@ -1562,24 +1241,15 @@
     <t>“공공기관 방만 경영 개선” 尹, 고강도 구조조정 예고</t>
   </si>
   <si>
-    <t>경기도일자리재단, '사회적경제 공공구매 상담회' 진행</t>
-  </si>
-  <si>
     <t>尹대통령 “적자 부실 공공기관, 과거 방식 절차따라” ‘불편한 동거’ 주목</t>
   </si>
   <si>
-    <t>경기도일자리재단, 지난 17일 사회적경제 공공구매 상담회 '도내 사회적경제기업 116개사 참여'</t>
-  </si>
-  <si>
     <t>경기도 사회적경제 공공구매 상담 216건 진행</t>
   </si>
   <si>
     <t>매경이 전하는 세상의 지식 (매-세-지, 6월 21일)</t>
   </si>
   <si>
-    <t>[굿모닝브리핑] '발사 준비 완료' 누리호, 진짜 위성 싣고 우주로</t>
-  </si>
-  <si>
     <t>물가 고공행진에 경제고통지수 자본시장 모두 최고조 [한강로 경제브리핑]</t>
   </si>
   <si>
@@ -1613,9 +1283,6 @@
     <t>코레일 LH, 경영 ‘낙제’</t>
   </si>
   <si>
-    <t>[공공기관 경영평가] 코레일, 가장 낮은 E등급 '낙제점'</t>
-  </si>
-  <si>
     <t>경영평가 ‘낙제점’... 한전 등 21개 공기업 임원 성과급 반납 권고</t>
   </si>
   <si>
@@ -1625,21 +1292,9 @@
     <t>해양수산연수원 부산 유일 ‘D’ 남부발전 자산관리공사 주택금융공사 ‘A’</t>
   </si>
   <si>
-    <t>한전 코레일 LH 경영평가 낙제점 '재무악화' 한전 임원 성과급 반납</t>
-  </si>
-  <si>
-    <t>공공기관 경평서 18개 기관 낙제점 文 '알박기 인사' 기관도 일부 포함</t>
-  </si>
-  <si>
-    <t>코레일 LH 마사회 등 18곳 낙제점 공공기관 '칼바람' 부나</t>
-  </si>
-  <si>
     <t>文정부 방만한 공공기관 경영에 ‘철퇴’ 내린 尹정부</t>
   </si>
   <si>
-    <t>한전 등 ‘성과급 자율 반납’ 권고 1000억 적자도 'A등급' 왜?</t>
-  </si>
-  <si>
     <t>‘재무 악화’ 한전 경영진 성과급 반납한다 코레일 LH 경영 ‘낙제점’</t>
   </si>
   <si>
@@ -1649,75 +1304,30 @@
     <t>[2021 공공기관 경영평가] 인국공 도공 국가철도공단 임기 6개월 이상 남은 수장에 경고</t>
   </si>
   <si>
-    <t>경영평가서 18곳 낙제 공공기관 '칼바람' 부나</t>
-  </si>
-  <si>
     <t>[기획] 낙제점 받은 코레일 LH 한전, 성과급 반납 권고</t>
   </si>
   <si>
-    <t>'찻잔속 태풍' 그친 公기관 평가</t>
-  </si>
-  <si>
     <t>철도 우체국 경영평가 낙제점 해양안전공단은 기관장 해임 건의</t>
   </si>
   <si>
     <t>공공기관 18곳 낙제점 수장 물갈이 신호탄</t>
   </si>
   <si>
-    <t>[단독] 공기업도 '원스트라이크 아웃' 음주운전 한번만 걸려도 퇴출</t>
-  </si>
-  <si>
-    <t>"해임 건의 1명, 경고는 10여명" 공공기관장 '물갈이'는</t>
-  </si>
-  <si>
     <t>코레일 LH 마사회 낙제, 한전 성과급 반납... 윤 정부 첫 공기관 평가</t>
   </si>
   <si>
-    <t>'부동산 투기' LH, 올해는 성과급 받는다 2년 연속 'D등급'인데 왜?</t>
-  </si>
-  <si>
     <t>코레일 LH 경영평가 낙제점 새 정부 공공기관 평가 ‘사회적 가치’→‘경영성과’로 이동한다</t>
   </si>
   <si>
-    <t>코레일 LH 경영평가 '최하위권 한전 기관장 성과급 반납권고</t>
-  </si>
-  <si>
     <t>공공기관 경영평가 18곳 ‘낙제점’ 코레일 ‘아주 미흡’</t>
   </si>
   <si>
-    <t>18개 공공기관 경영 '낙제점' 코레일 C→E 2단계 하락</t>
-  </si>
-  <si>
-    <t>130개 공공기관 성적표 나왔다 11년 만에 나온 'S등급' 주인공은?</t>
-  </si>
-  <si>
-    <t>공공기관 경영평가...코레일 '아주 미흡' LH '미흡'</t>
-  </si>
-  <si>
     <t>코레일 경영평가 최저 등급 한전 기관장 성과급 반납 권고</t>
   </si>
   <si>
-    <t>"한전 사장, 성과급 반납하라" 해양교통안전공단 '기관장 해임' 건의</t>
-  </si>
-  <si>
     <t>코레일 LH 경영평가 `낙제점` 한전 석유공사 등 기관장 성과급 반납권고</t>
   </si>
   <si>
-    <t>[속보] 전기료 인상 앞두고 "한전 성과급 토해내라" 자율반납 권고</t>
-  </si>
-  <si>
-    <t>코레일 공공기관 경영평가 '아주 미흡'</t>
-  </si>
-  <si>
-    <t>[속보] 공운위, '재무상황 악화' 한전에 기관장 성과급 반납 권고</t>
-  </si>
-  <si>
-    <t>公기관 경영평가 '미흡 이하' 18곳 성과급 '0' 한전 9개 자회사 자율반납(상보)</t>
-  </si>
-  <si>
-    <t>공운위 "'재무 악화' 한전 성과급 반납해" "코레일 아주미흡, LH 미흡"</t>
-  </si>
-  <si>
     <t>부경경마공원 경주마 위령제</t>
   </si>
   <si>
@@ -1730,9 +1340,6 @@
     <t>한국마사회, 서울경마공원에 ‘한국경마 100년 기념관’ 경마 역사 담았다</t>
   </si>
   <si>
-    <t>부경경마공원, 경주마 넋 기리는 '말위령제' 시행</t>
-  </si>
-  <si>
     <t>한국마사회 부산연제지사, 취약계층에 ‘황금도시락’ 전달</t>
   </si>
   <si>
@@ -1751,27 +1358,12 @@
     <t>수원시청, 2022 춘계 회장기 실업탁구대회 정상 등극</t>
   </si>
   <si>
-    <t>[애니청원] 생존조차 위태로운 퇴역 경주마 "이력제 확대 추진해야"</t>
-  </si>
-  <si>
-    <t>양하은, 봄철실업탁구 전관왕...'내 전성기는 지금!'</t>
-  </si>
-  <si>
-    <t>한국마사회, 100년의 영광 '서울경마공원 기념관' 특별전시공간 마련</t>
-  </si>
-  <si>
     <t>부경경마공원 25일부터 전면개방</t>
   </si>
   <si>
-    <t>한국마사회, 정기환 마사회장 등 임원 6명 '청렴 리더십 고위직 과정' 참여</t>
-  </si>
-  <si>
     <t>한국마사회 렛츠런재단, 용산장학관 입주 대학생 헬스트레이닝 심리 상당 서비스 제공</t>
   </si>
   <si>
-    <t>광주 동구, 저소득층 위한 푸드마켓 개설 '눈길'</t>
-  </si>
-  <si>
     <t>이주의 농업 산림 소식_2022061616</t>
   </si>
   <si>
@@ -1784,9 +1376,6 @@
     <t>부산경남경마공원, 25일부터 공원지역 전면개방</t>
   </si>
   <si>
-    <t>"여름썰매에 승마까지 놀거리 가득" 경마공원 문 '활짝'</t>
-  </si>
-  <si>
     <t>렛츠런파크, 장기 휴장 끝내고 25일부터 전면개방 사계절 썰매장 무료이용권 제공</t>
   </si>
   <si>
@@ -1799,15 +1388,9 @@
     <t>한국마사회, 2030 소통 위한 청년참여혁신단 1기 모집</t>
   </si>
   <si>
-    <t>제주 경마 "다른 말이 뛰었다" 초유의 사태 마권판매액 전액환불 징계</t>
-  </si>
-  <si>
     <t>부경경마공원, 지역 예술 현장 지원 나서</t>
   </si>
   <si>
-    <t>광주 동구 "결식 대상자 없도록 " 푸드마켓 개소</t>
-  </si>
-  <si>
     <t>[공공기관 뉴스] 한국마사회 ‘청년참여혁신단’ 모집 20~30대 목소리 정책 반영</t>
   </si>
   <si>
@@ -1826,9 +1409,6 @@
     <t>경마 새로운 콘텐츠 시도 경마팬에 큰 호응</t>
   </si>
   <si>
-    <t>출전마 바뀐 채 경기한 제주 경마장 "일괄 환불 처리"</t>
-  </si>
-  <si>
     <t>제주경마 출전마 뒤바뀐 채 경기 논란</t>
   </si>
   <si>
@@ -1841,30 +1421,15 @@
     <t>“왜 다른 말이 나와?” 마사회 출전마 오류, 3억대 환불</t>
   </si>
   <si>
-    <t>"구급차 안전 운용 위해" 과천시, 관내 구급차 운용 및 관리 현황 점검 나서</t>
-  </si>
-  <si>
     <t>과천시 지역 구급차 운용 관리 실태 점검 나서</t>
   </si>
   <si>
     <t>한국마사회 부산동구지사, 취약어르신 주거환경개선사업 기부금 전달</t>
   </si>
   <si>
-    <t>'오라스타' 제주마 절대강자 입증</t>
-  </si>
-  <si>
-    <t>한국마사회, '중대재해 ZERO' 사업장 다짐 '각오'</t>
-  </si>
-  <si>
-    <t>한국마사회, 한국경마 100주년 기념 가상경마 이벤트 '100투더 트랙!' 경주마 선정 국민투표 진행</t>
-  </si>
-  <si>
     <t>경마가 이런 스포츠였나?</t>
   </si>
   <si>
-    <t>한국마사회, 한국경마 100년 기념 '말럽 백허그 챌린지' 진행</t>
-  </si>
-  <si>
     <t>경마가 이런 스포츠였나? 자키캠 드론 마상인터뷰까지~</t>
   </si>
   <si>
@@ -1913,15 +1478,6 @@
     <t>공공기관 부채규모만 583조 한전 등 27곳 재무상황평가 실시</t>
   </si>
   <si>
-    <t>한국마사회, 세계 최고 경주마 '닉스고' 명예 우체국장 임명</t>
-  </si>
-  <si>
-    <t>한국마사회, 제26회 말사진 공모전 '세기를 박차다' 개최</t>
-  </si>
-  <si>
-    <t>한국마사회, '2022K-농산어촌 한마당' 말산업 홍보 예정</t>
-  </si>
-  <si>
     <t>한국마사회 부산연제지사, 클린존(Clean-zone) 캠페인 시행</t>
   </si>
   <si>
@@ -1931,30 +1487,18 @@
     <t>마사회 부산연제지사, 지역 어르신과 환경정화활동</t>
   </si>
   <si>
-    <t>한국마사회 경주마 닉스고, 메릴랜드주 '명예 우체국장'</t>
-  </si>
-  <si>
     <t>한국마사회 부산동구지사, 범일2동과 ‘깨끗하고 살기좋은 마을 만들기’ MOU 체결</t>
   </si>
   <si>
     <t>경주마 닉스고, 미국 명예 우체국장 임명</t>
   </si>
   <si>
-    <t>한국마사회 경주마 닉스고, 미국에서 '명예 우체국장' 선임</t>
-  </si>
-  <si>
     <t>한국마사회 부산동구지사, 범일2동 ‘깨끗하고 살기좋은 마을 만들기’</t>
   </si>
   <si>
     <t>한국마사회 ‘VISION 2037, 글로벌 TOP5 말산업 선도기업’</t>
   </si>
   <si>
-    <t>한국마사회, 화성 에코팜랜드 '제 5차 이사회' 개최</t>
-  </si>
-  <si>
-    <t>2년 만에 열린 제21회 YTN배 경마대회...우승은 '위너스맨'</t>
-  </si>
-  <si>
     <t>공공기관 요건되지만 지정 안된 곳 수십곳 국회보고서 “미지정 사유 없어”</t>
   </si>
   <si>
@@ -1970,9 +1514,6 @@
     <t>주말 도심 대규모 집회 화물연대 1만2000여명 총파업 결의</t>
   </si>
   <si>
-    <t>"화물연대부터 비정규직까지" 노동계, 서울 곳곳 집회</t>
-  </si>
-  <si>
     <t>남해해경청, 현정화 감독 홍보대사로 위촉</t>
   </si>
   <si>
@@ -1994,9 +1535,6 @@
     <t>한국마사회, 윤리청렴 경영계획 수립 “국민 신뢰회복 원년 만든다”</t>
   </si>
   <si>
-    <t>한국마사회, 한국경마 100년 '2022년 윤리경영계획' 추진</t>
-  </si>
-  <si>
     <t>백마 탄 왕자(?)처럼![퇴근길 한 컷]</t>
   </si>
   <si>
@@ -2018,9 +1556,6 @@
     <t>18년 장기 근속한 역장이 신입보다 기본급이 낮다?</t>
   </si>
   <si>
-    <t>文 정부 '낙하산 聖地' 공기업 "경영 쇄신커녕 파벌 구축 급급"</t>
-  </si>
-  <si>
     <t>한국마사회 창원지사, 창원중부경찰서와 불법촬영 예방 합동 점검 실시</t>
   </si>
   <si>
@@ -2063,15 +1598,9 @@
     <t>한국경마 100년 맞아 새로운 미래 비전 선포</t>
   </si>
   <si>
-    <t>한국마사회, 말박물관 특별전 '한국경마 100년 신바람 100선' 마련</t>
-  </si>
-  <si>
     <t>김우남 후보 대한민국 부패 카르텔과 전쟁 선포</t>
   </si>
   <si>
-    <t>마사회 "한국 말산업, 세계 톱5로"</t>
-  </si>
-  <si>
     <t>한국경마 100년, 세계 7위 경마수출국 반열에</t>
   </si>
   <si>
@@ -2087,42 +1616,18 @@
     <t>“경마산업 2037년 세계5위로”</t>
   </si>
   <si>
-    <t>"2037년 말산업 글로벌 5위 도약"</t>
-  </si>
-  <si>
     <t>5월20일 알림</t>
   </si>
   <si>
     <t>한국마사회, 한국경마 시행 100년 맞아 새로운 미래 비전 선포</t>
   </si>
   <si>
-    <t>이소영 "방위사업청 마사회 이전, 과천시민은 용납 못한다"</t>
-  </si>
-  <si>
-    <t>한국마사회,'한국경마 100주년' 기념식 개최</t>
-  </si>
-  <si>
     <t>한국경마 100년 기념식 개최  새로운 한국경마 미래 100년 비전 제시</t>
   </si>
   <si>
-    <t>한국 경마 100주년...마사회 "자랑스러운 K-경마 만들 것"</t>
-  </si>
-  <si>
-    <t>'경마 100돌' 한국마사회 "15년 이내 '세계 톱5' 목표로 달릴 것"</t>
-  </si>
-  <si>
-    <t>'VISION 2037, 글로벌 TOP 5 말산업 선도기업'</t>
-  </si>
-  <si>
-    <t>한국마사회 '경마 100주년' 기념식 '2037년까지 세계 톱5' 비전 선포</t>
-  </si>
-  <si>
     <t>한국마사회 경마시행 100주년 기념식...말 경마산업 재도약 선포</t>
   </si>
   <si>
-    <t>한국경마 100년 기념식 개최 '15년내 글로벌 탑5 진입' 목표</t>
-  </si>
-  <si>
     <t>한국경마 100년 한국마사회 ‘15년내 세계 5위 경마시행 국가로’ 비전 발표</t>
   </si>
   <si>
@@ -2132,24 +1637,12 @@
     <t>[포토] 한국마사회, 한국 경마 100년 기념식 개최</t>
   </si>
   <si>
-    <t>"세계가 주목하는 K-경마 실현" 100살 맞는 마사회의 약속</t>
-  </si>
-  <si>
     <t>한국 경마 100년 한국마사회 새 미래비전 선포</t>
   </si>
   <si>
     <t>한국 경마 100년 기념식 개최...새 미래 비전 선포</t>
   </si>
   <si>
-    <t>'韓경마 100주년' 마사회, 세계 5위 도약 새 비전 선포</t>
-  </si>
-  <si>
-    <t>"김우남 전 마사회장 보궐선거 출마 규탄"</t>
-  </si>
-  <si>
-    <t>"도시철도 연장" "마사회 이전" 영천시장선거 정책대결 유권자 반긴다</t>
-  </si>
-  <si>
     <t>뚝섬승마장 26~28일 임시 개방, ‘경찰 기마대와 승마체험’ 등 운영</t>
   </si>
   <si>
@@ -2165,12 +1658,6 @@
     <t>폐쇄됐던 서울숲 ‘뚝섬승마장’, 3일간 임시 개방  경찰기마대와 승마 체험도</t>
   </si>
   <si>
-    <t>"'서울숲 승마장' 딱 3일간 임시개방 합니다"</t>
-  </si>
-  <si>
-    <t>한국마사회, 건전 경마 위한 '국민참여 모니터링단' 발대식</t>
-  </si>
-  <si>
     <t>마사회 세종연구소 산학협력 업무협약 체결</t>
   </si>
   <si>
@@ -2180,24 +1667,15 @@
     <t>한국마사회 서울경마공원, 한국경마 100년 맞이 대고객 행사 개최</t>
   </si>
   <si>
-    <t>농진원, 마사회와 사회적 책임 강화 '청년창업 육성지원' 협약</t>
-  </si>
-  <si>
     <t>마사회, 코로나 19 상황에서 따뜻한 나눔의 가치 이어갔다</t>
   </si>
   <si>
     <t>부경경마공원 올해 2차 재활승마 강습생 자원봉사자 모집</t>
   </si>
   <si>
-    <t>한국마사회, 100주년 기념 '제25회 코리안더비' 개최</t>
-  </si>
-  <si>
     <t>제주시을 보궐선거 김한규 부상일 김우남 ‘3파전’ 예상</t>
   </si>
   <si>
-    <t>"농축산식품분야 청년창업 육성" 농진원-마사회 '맞손'</t>
-  </si>
-  <si>
     <t>박영환 국힘 영천시장 후보 “힘있는 여당 시장, 정부 국회와 원팀으로 영천 발전”</t>
   </si>
   <si>
@@ -2207,9 +1685,6 @@
     <t>불법 경마 도박사이트 운영 일당 3명 구속</t>
   </si>
   <si>
-    <t>8억원대 불법 경마 사이트 운영 '덜미'</t>
-  </si>
-  <si>
     <t>[에너지 뉴스] 남동발전, 제주어음풍력발전사업 첫삽 21MW급 外</t>
   </si>
   <si>
@@ -2243,9 +1718,6 @@
     <t>公기관 2곳중 1곳 작년 적자 한전 5조8000억 최다</t>
   </si>
   <si>
-    <t>울산 공공기관 절반 이상 '흑자 전환'</t>
-  </si>
-  <si>
     <t>부경경마공원 “기수와의 소통 활성화에 노력”</t>
   </si>
   <si>
@@ -2294,24 +1766,12 @@
     <t>3선 국회의원 출신 김우남 전 마사회장 제주시을 보궐선거 무소속 출마</t>
   </si>
   <si>
-    <t>이천 설성초 전교생 승마로 자신감 '쑥쑥'</t>
-  </si>
-  <si>
     <t>‘인국공 사태’ 낳은 文정부의 정규직 전환 5년간 10만명 전환됐다</t>
   </si>
   <si>
-    <t>文 정부 공공기관 비정규직 10만 명 정규직 됐지만 다수는 '자회사'</t>
-  </si>
-  <si>
-    <t>문 대통령 5년 '공공 비정규직' 절반 넘게 줄여</t>
-  </si>
-  <si>
     <t>文정부 5년간 공공기관 정규직 전환 10.1만명 한전 최다</t>
   </si>
   <si>
-    <t>"명예 드높여" 양평군청 유도선수단, '제13회 청풍기전국유도대회' 서 메달 5개 획득</t>
-  </si>
-  <si>
     <t>문재인 정부 5년간 공공기관 10만여명 정규직 전환</t>
   </si>
   <si>
@@ -2321,18 +1781,12 @@
     <t>文정부 5년간 공공기관 10만명 정규직 전환 한국전력 최다</t>
   </si>
   <si>
-    <t>문재인 정부 공공기관 정규직 전환 실적 보니 "한전 최다"</t>
-  </si>
-  <si>
     <t>공공기관 비정규직 절반 이상 줄었다 자회사 간접고용으로 정규직화</t>
   </si>
   <si>
     <t>文 정부 5년간 공공기관 정규직 전환 10.1만명 한전 최다</t>
   </si>
   <si>
-    <t>한국마사회, 해외로 뻗는 경마사업 '100년 밝힐 新성장 동력' 역할 기대</t>
-  </si>
-  <si>
     <t>4년의 담금질, 120초내 극한질주로 폭발 [밀착취재]</t>
   </si>
   <si>
@@ -2360,9 +1814,6 @@
     <t>[부음] 박병한씨(전 대보건설 부사장) 별세 外</t>
   </si>
   <si>
-    <t>부경경마공원, 8일 '제23회 코리안오크스' 대상경주 개최</t>
-  </si>
-  <si>
     <t>한국마사회 말박물관, 어린이 단체 견학 실시</t>
   </si>
   <si>
@@ -2399,24 +1850,12 @@
     <t>한국마사회, 매주 목요일 어린이집 및 유치원 대상 말박물관 무료 개방</t>
   </si>
   <si>
-    <t>한국마사회 부산동구지사, 도시재생마을 '노인 일자리창출 및 지역발전' 업무협약 체결</t>
-  </si>
-  <si>
     <t>한국마사회 부산경남지역본부, ‘기수와의 대화’ 개최하며 소통활성화 노력</t>
   </si>
   <si>
     <t>노인 일자리 창출 지역 발전 챙긴다  한국마사회 부산동구지사, 도시재생마을 업무협약 체결</t>
   </si>
   <si>
-    <t>[6 1 지방선거 격전지 분석-영천시장] 박영환 '보수텃밭서 시장직 탈환' VS 최기문 '무소속 재선 도전'</t>
-  </si>
-  <si>
-    <t>文 블랙리스트 '나비효과'..'저승사자'가 된 공기업 경영평가</t>
-  </si>
-  <si>
-    <t>"E등급 받으면 짤린다"..'알박기' 사장들, 尹정부 첫 경평에 떤다</t>
-  </si>
-  <si>
     <t>강동원 남원시장 예비후보 ‘교육중심도시’ 정책 공약 발표</t>
   </si>
   <si>
@@ -2429,9 +1868,6 @@
     <t>한국마사회 창원지사 창원소방서, 소방훈련 시행</t>
   </si>
   <si>
-    <t>제20회 헤럴드경제배 대상경주 영광의 우승컵 주인공은 '위너스맨'</t>
-  </si>
-  <si>
     <t>100주년 바라보는 韓 탁구 ‘제2의 부흥’ 올까</t>
   </si>
   <si>
@@ -2447,9 +1883,6 @@
     <t>4월29일 알림</t>
   </si>
   <si>
-    <t>'어마어마' 제16회 부산일보배 대상경주 우승</t>
-  </si>
-  <si>
     <t>한국마사회, 사회공헌 힐링 사업 실시</t>
   </si>
   <si>
@@ -2471,12 +1904,6 @@
     <t>마사회 인천중구지사 지역상생협의회 개최</t>
   </si>
   <si>
-    <t>돌아온 '삐약이' 신유빈, 확 어려진 한국탁구 이끈다</t>
-  </si>
-  <si>
-    <t>마사회탁구단, '데플림픽' 대표 선수에 재능 기부</t>
-  </si>
-  <si>
     <t>한국마사회 장수목장, 장계면 지역사회보장협의체에 기부금 기탁</t>
   </si>
   <si>
@@ -2486,9 +1913,6 @@
     <t>한국마사회, 국민 신뢰회복 등 혁신안 추진키로</t>
   </si>
   <si>
-    <t>한국마사회, 위기 극복 '상생과 혁신' 발표</t>
-  </si>
-  <si>
     <t>‘어마어마’ 우승 질주 단거리 최강마 자리 탈환</t>
   </si>
   <si>
@@ -2516,18 +1940,12 @@
     <t>한국마사회 구리지사, 구리전통시장과 골목상권 활성화 맞손</t>
   </si>
   <si>
-    <t>부경경마공원, 24일 '제16회 부산일보배' 대상경주 개최</t>
-  </si>
-  <si>
     <t>국민의힘 김민서 전 익산시의원, 익산시장 선거 출마 선언</t>
   </si>
   <si>
     <t>장우진, 항저우AG 탁구 국가대표 선발전 1위 조기 확정</t>
   </si>
   <si>
-    <t>[뉴스분석] '공공기관장'에 칼 뺀 尹인수위 文정부 인사 '물갈이 신호탄'</t>
-  </si>
-  <si>
     <t>‘캡틴양키’ 조인권 기수 짜릿한 역전승</t>
   </si>
   <si>
@@ -2546,15 +1964,9 @@
     <t>제주경마공원 이번 주말부터 전면개방</t>
   </si>
   <si>
-    <t>[단독]감사원 "실적나쁜 공공기관장 감사" 文정부 인사 물갈이?</t>
-  </si>
-  <si>
     <t>[홍천]대한민국 탁구 도시 홍천 발전 스타들이 뭉쳤다</t>
   </si>
   <si>
-    <t>부경경마공원, 말 통한 치유 홀스테라피 시행 '주목'</t>
-  </si>
-  <si>
     <t>경마 100주년 ‘다시 보고 싶은 조교사’ 뽑는다 마사회, 팬들 대상 추첨</t>
   </si>
   <si>
@@ -2570,18 +1982,9 @@
     <t>자연과 말과 함께하는 치유 홀스테라피</t>
   </si>
   <si>
-    <t>렛츠런파크, 자연과 말과 함께하는 치유 '홀스테라피(Horse therapy)'</t>
-  </si>
-  <si>
-    <t>[홍천]홍천군 ‘한국 대표 탁구도시' 급부상</t>
-  </si>
-  <si>
     <t>최고 3세마 향한 질주</t>
   </si>
   <si>
-    <t>부경경마공원, 17일 '제18회 KRA컵 마일' 대상경주 개최</t>
-  </si>
-  <si>
     <t>한국마사회, 경주마 재활 지원 프로그램 도입</t>
   </si>
   <si>
@@ -2618,36 +2021,18 @@
     <t>공공기업 10곳 중 4곳 고객만족도 ‘낙제점’ LH 코레일 등 포함</t>
   </si>
   <si>
-    <t>한전 LH 코레일 마사회, 고객만족도 평가 '미흡'</t>
-  </si>
-  <si>
     <t>‘윤석열 절친’ 정호영 복지부 장관 후보자의 ‘경북대병원’, 고객만족도 ‘낙제점’</t>
   </si>
   <si>
     <t>SR 한전 LH 등 공공기관 104곳 고객만족도 ‘미흡’</t>
   </si>
   <si>
-    <t>LH 코레일 한전 마사회 고객만족도 평가 '미흡'</t>
-  </si>
-  <si>
     <t>효율 강조하는 새정부 통폐합 1순위는 한전 발전자회사 [정권교체기 휘둘리는 공공기관]</t>
   </si>
   <si>
     <t>이양호 구미시장 예비후보, 선거사무소 개소</t>
   </si>
   <si>
-    <t>한국마사회 새만금 이전 소식에 과천지역 '시끌'</t>
-  </si>
-  <si>
-    <t>한국마사회 정기환 회장, '서울경마공원' 안전환경 점검</t>
-  </si>
-  <si>
-    <t>허정환 국민의힘 과천시장 예비후보 "마사회 새만금 이전 사실 무근 확인"</t>
-  </si>
-  <si>
-    <t>한국마사회 새만금 이전? 지방선거 후보자도 입장 '과천 핫이슈 부각'</t>
-  </si>
-  <si>
     <t>말조련사 장제사 등 ‘말산업 국가자격시험’ 21일까지 원서접수</t>
   </si>
   <si>
@@ -2657,18 +2042,12 @@
     <t>한국마사회 서울경마공원 벚꽃길 3년만에 전면 개방</t>
   </si>
   <si>
-    <t>부경경마공원, 15일부터 '드라이브스루 베팅존' 운영</t>
-  </si>
-  <si>
     <t>10일 부산경남경마공원, 국산 암말 ‘루나스테이크스’ 대상 경주</t>
   </si>
   <si>
     <t>한국마사회, 사행산업 사행기관 건전화 평가 A등급</t>
   </si>
   <si>
-    <t>한국마사회, '벚꽃 맞집' 서울경마공원 벚꽃길 8일 개방</t>
-  </si>
-  <si>
     <t>전북 숙원 새만금 개발, 인수위 TF 특별과제 됐다</t>
   </si>
   <si>
@@ -2678,9 +2057,6 @@
     <t>대통령 직속 새만금특위 설치 최우선으로 해야</t>
   </si>
   <si>
-    <t>부산경남경마공원 "차 안에서도 경마 베팅 가능"</t>
-  </si>
-  <si>
     <t>부산의 전설 ‘루나’ 이름 걸고 최고 3세 암말은?</t>
   </si>
   <si>
@@ -2696,15 +2072,9 @@
     <t>김혜선 기수, 국제교류경주 3경주 모두 석권</t>
   </si>
   <si>
-    <t>부산경남경마공원 '차 안에서 경마 즐긴다'</t>
-  </si>
-  <si>
     <t>차기 정부서 탄력 받는 새만금 개발</t>
   </si>
   <si>
-    <t>'탁구명가' 파주 문산수억고 이끄는 신민성 감독</t>
-  </si>
-  <si>
     <t>한국마사회 정기환 회장, 함안군 승마공원 방문</t>
   </si>
   <si>
@@ -2738,12 +2108,6 @@
     <t>한국마사회 정기환 회장, 부경 말산업 종사자 위한 현장소통 나서</t>
   </si>
   <si>
-    <t>한국마사회 정기환 회장, 경남지역 승마시설 방문 "소통해요~"</t>
-  </si>
-  <si>
-    <t>한국마사회, 한 세기를 풍미한 한국경마 '공식 엠블럼' 전파</t>
-  </si>
-  <si>
     <t>한국마사회, 한국경마 100주년 기념 공식 엠블럼 공개</t>
   </si>
   <si>
@@ -2765,15 +2129,6 @@
     <t>부경경마공원 이상영 조교사, 개인통산 300승 달성</t>
   </si>
   <si>
-    <t>한국마사회, '남아공 터키' 국제교류 경주 실시</t>
-  </si>
-  <si>
-    <t>한국마사회, 심판소식지 '스튜어드 나우' 제25호 발간</t>
-  </si>
-  <si>
-    <t>정기환 한국마사회장, 윤리경영 정착 '직무청렴계약' 체결</t>
-  </si>
-  <si>
     <t>이주의 농업 산림 소식_2022033116</t>
   </si>
   <si>
@@ -2795,15 +2150,6 @@
     <t>2030 부산 엑스포 유치 이정재 가상인간 ‘로지’ 앞장</t>
   </si>
   <si>
-    <t>'올탁구나' 멤버들, 탁구 신동 이승수 이예서 남매에 특훈→초등부 선수들과 시합 결과는?[종합]</t>
-  </si>
-  <si>
-    <t>'은지원 팀' 퐁당퐁당, 마사회 프로선수단에 승리('올탁구나')</t>
-  </si>
-  <si>
-    <t>'올탁구나' 현정화 "은퇴한 이유? 지기 싫어서"</t>
-  </si>
-  <si>
     <t>[이런일]한국마사회, 경북 강원 산불 피해 복구 성금 1억 원 기부</t>
   </si>
   <si>
@@ -2816,9 +2162,6 @@
     <t>한국마사회, 경마팬 및 유관단체와 공동으로 경북 강원 산불 피해 복구 지원금 1억 원 기부</t>
   </si>
   <si>
-    <t>'한국경마 100년' 기념 사업 추진위 발족</t>
-  </si>
-  <si>
     <t>[사설] 盧는 文처럼 임기 말 ‘맘대로 인사’ 횡포 부리지 않았다</t>
   </si>
   <si>
@@ -2828,27 +2171,12 @@
     <t>마사회, 한국경마 100년 기념사업추진위원회 발족</t>
   </si>
   <si>
-    <t>김기현 "文정권 `알박기 인사` 59명 새정부 발목 잡을 것"</t>
-  </si>
-  <si>
-    <t>한국마사회, '2022년 공공부문 클라우드 기술선도 프로젝트'에 마권발매 클라우드 개발사업 선정</t>
-  </si>
-  <si>
     <t>김기현 “文, 임기 말 59명 알박기 민주당-靑 출신 보은성 인사”</t>
   </si>
   <si>
-    <t>국힘 "文 임기말 알박기 59명 민주당 2중대 될 것"</t>
-  </si>
-  <si>
     <t>김기현 “文, 공공기관에 59명 알박기 전문성 없는 보은성 인사”</t>
   </si>
   <si>
-    <t>김기현 "文정부 '알박기 인사' 59명 세금 축내기 발목 잡기 우려"</t>
-  </si>
-  <si>
-    <t>"年매출 300억 미만이면 56억 적자 매출총량 1000억은 돼야"</t>
-  </si>
-  <si>
     <t>[이현상의 퍼스펙티브] 대통령과 공공기관, 따로 노는 임기가 책임정치 훼손</t>
   </si>
   <si>
@@ -2864,12 +2192,6 @@
     <t>[김성현 칼럼] 인사가 만사다</t>
   </si>
   <si>
-    <t>인수위 "公기관 알박기 인사 현황 내놔라"</t>
-  </si>
-  <si>
-    <t>[단독] 인수위, 기재부에 "임기말 인사 알박기 현황 내놔라"</t>
-  </si>
-  <si>
     <t>김우남 전 마사회장, 첫 재판서 ‘측근 채용 강요’ 등 혐의 모두 부인</t>
   </si>
   <si>
@@ -2891,12 +2213,6 @@
     <t>‘승마의 품격과 기술’ 이곳에서 다 배운다</t>
   </si>
   <si>
-    <t>한국마사회, 장애를 넘어서는 '재활승마' 무료강습 모집 실시</t>
-  </si>
-  <si>
-    <t>"권력 충돌" 尹 출범전 공공기간 요직 12명 임기 만료 된다</t>
-  </si>
-  <si>
     <t>한국 마사회 과천점 재활승마 강습생 모집</t>
   </si>
   <si>
@@ -2912,9 +2228,6 @@
     <t>尹정부 출범전 공공기관장 감사직 임기 만료 인사권 갈등 불가피</t>
   </si>
   <si>
-    <t>[석민의News픽] '착한' 윤석열이 내로남불 이중성 문-재명을 결국에는 이긴다?</t>
-  </si>
-  <si>
     <t>양평군청 유도선수단, 순천만 국가정원컵 전국유도대회서 메달획득</t>
   </si>
   <si>
@@ -2924,45 +2237,30 @@
     <t>한국마사회-부산시, ‘2030세계박람회’ 부산 유치 위한 공동 홍보 협약 체결</t>
   </si>
   <si>
-    <t>부산시-한국마사회, '2030세계박람회 부산 유치 공동홍보를 위한 업무협약' 체결</t>
-  </si>
-  <si>
     <t>한국마사회 사업장서 2030월드엑스포 부산유치 홍보</t>
   </si>
   <si>
     <t>부산경남경마공원 기수 숙소 용도전환 협약</t>
   </si>
   <si>
-    <t>대전 서구의회, '제4회 거버넌스지방정치대상' 우수상</t>
-  </si>
-  <si>
     <t>부산시, 한국마사회와 부산세계박람회 유치 홍보 협업</t>
   </si>
   <si>
     <t>부경경마공원, 기수숙소 용도전환 협약 체결</t>
   </si>
   <si>
-    <t>[부산 이모저모] 도보여행길 'YOLO 갈맷길' 선포식 개최 外</t>
-  </si>
-  <si>
     <t>市-한국마사회 부산세계박람회 유치 홍보 맞손</t>
   </si>
   <si>
     <t>부산 마사회 세계박람회 홍보 협약</t>
   </si>
   <si>
-    <t>한국마사회 서울경마공원, 2030 대상 경마 응원 행사 '다시, 봄' 개최</t>
-  </si>
-  <si>
     <t>17개 시도 의장 전원 홍보대사 위촉 부산월드엑스포 불 지핀다</t>
   </si>
   <si>
     <t>이선용 의장, 거버넌스 지방정치대상 수상</t>
   </si>
   <si>
-    <t>한국마사회 '영천경마공원' 설계용역 완료 보고회</t>
-  </si>
-  <si>
     <t>&lt;포럼&gt;文 ‘알박기 인사’ 정치 타락의 극치</t>
   </si>
   <si>
@@ -2973,13 +2271,715 @@
   </si>
   <si>
     <t>[뉴스Insight] 윤석열 당선인 길들이기? Or 문-재명 정권의 단말마(斷末摩)?</t>
-  </si>
-  <si>
-    <t>안산시청 윤현지, 순천만유도 女일반 78㎏급 '천하무적'</t>
   </si>
   <si>
     <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주 범죄피해자에 2520만원 .지원.</t>
+  </si>
+  <si>
+    <t>한국마사회, 부패취약 분야 점검 .반부패 청렴 Month. 시행</t>
+  </si>
+  <si>
+    <t>한국마사회 렛츠런파크 서울,.렛츠런 캠핑파크. 10월 1일부터 23일까지 매주 토 일 개최</t>
+  </si>
+  <si>
+    <t>영암군-농어촌청소년육성재단, 청소년 활동 지원 .맞손.</t>
+  </si>
+  <si>
+    <t>한국마사회, 문화센터 .4학기 수강생 모집.</t>
+  </si>
+  <si>
+    <t>한국마사회, 21일부터 25일까지 .제16회 농림부장관배 승마대회. 등 각종 행사 개최</t>
+  </si>
+  <si>
+    <t>한국마사회, 경주마 도핑검사 .국제숙련도시험. 100% 적중</t>
+  </si>
+  <si>
+    <t>가축과 AI의 접목 세계 유일 .축산 데이터톤. 11월 열린다</t>
+  </si>
+  <si>
+    <t>.썰매타고 쇼핑에 단풍놀이까지... 부산경남경마공원 가을나들이 명소로</t>
+  </si>
+  <si>
+    <t>한국마사회, 국내 농가 대상 경주마 .닉스고. 무상 교배 지원</t>
+  </si>
+  <si>
+    <t>한국마사회, 과천축제 기간 시민회관서 .말박물관 체험 프로그램. 운영</t>
+  </si>
+  <si>
+    <t>한국마사회, 세계최고 경주마 .닉스고. 무상 교배 지원 실시</t>
+  </si>
+  <si>
+    <t>전남, 인터넷 불법 경마 금액 전국 3번째 .불명예.</t>
+  </si>
+  <si>
+    <t>한국마사회 부산연제지사, ‘사랑의 전통시장종합선물꾸러미.지원 기부금 지원</t>
+  </si>
+  <si>
+    <t>과천시, .축제. 지역기업 후원금 전달 이어져 환경에너지솔루션 3천만 원 전달</t>
+  </si>
+  <si>
+    <t>경마에 90% 쏠린 .K-말산업. 혁신한다 마사회 손잡은 스타트업</t>
+  </si>
+  <si>
+    <t>.알박기 인사. 논란 농어촌공사, 감사원 감사 이어 부산지방국세청 세무조사 받는다</t>
+  </si>
+  <si>
+    <t>부산경남경마공원, 추석맞이 취약계층 .한가위 맞이 농축산물. 전달</t>
+  </si>
+  <si>
+    <t>한국마사회, 3년만에 돌아온 .코리아컵. 전야제 실시</t>
+  </si>
+  <si>
+    <t>한국마사회, 추석맞이 송편 나눔...따뜻한 마음 .나눔.</t>
+  </si>
+  <si>
+    <t>한국마사회, 세계 경마인의 대축제 .코리아컵. 온 오프라인 실시</t>
+  </si>
+  <si>
+    <t>Rookie Stakes@부경, .판타스틱킹덤. 우승</t>
+  </si>
+  <si>
+    <t>여당이 찍은 곳 대규모 감사 예고 .표적 감사. 논란</t>
+  </si>
+  <si>
+    <t>[단독] .문 정부 기관장. 솎아내기? 여당이 찍은 곳 대규모 감사</t>
+  </si>
+  <si>
+    <t>부경경마공원 소상공인 지원 .소셜창업마켓. 운영</t>
+  </si>
+  <si>
+    <t>한국마사회, 청렴 가치 확산 .온택트 청렴릴레이. 실시</t>
+  </si>
+  <si>
+    <t>한국마사회, 매월 .상호존중의 날. 맞아 다양한 조직문화 개선 활동 진행</t>
+  </si>
+  <si>
+    <t>부산경남경마공원 플리마켓에 주말나들이객 .북적.</t>
+  </si>
+  <si>
+    <t>한국마사회, .2022 글로벌 헬스케어 위크’참여 이동형 ICT 경마승마 체험관 인기</t>
+  </si>
+  <si>
+    <t>한국마사회, 업무편의 복지관 .리모델링. 본격 실시</t>
+  </si>
+  <si>
+    <t>영천경마공원 내달 .첫 삽.</t>
+  </si>
+  <si>
+    <t>한국마사회, 레저산업 최초 .감사협의회. 구성</t>
+  </si>
+  <si>
+    <t>한국마사회 등 4개 레저산업 공공기관, 최초로 .감사협의회. 발족</t>
+  </si>
+  <si>
+    <t>경북 .영천경마공원. 9월 첫 삽 후보지 선정 이후 13년 만</t>
+  </si>
+  <si>
+    <t>국제 경주 .코리아컵. 2주 앞...국내 vs 해외 경주마 뜨거운 격돌</t>
+  </si>
+  <si>
+    <t>한국마사회, 전국민 대상 .경마방송 음원공모전. 개최 22일부터 접수</t>
+  </si>
+  <si>
+    <t>한국마사회, .그린승마존. 협약으로 국내 승마시설 수준 상향 예고</t>
+  </si>
+  <si>
+    <t>한국마사회, 21일까지 화훼농가 상생 위한 .야간수국축제. 개최</t>
+  </si>
+  <si>
+    <t>행정시장 인사청문회도 .역시. 되나</t>
+  </si>
+  <si>
+    <t>한국마사회, .노사 ESG 경영 공동선언. 경마산업 상생 실시</t>
+  </si>
+  <si>
+    <t>한국마사회, 역대 최고 실적 .국제방송실. 방문 실시</t>
+  </si>
+  <si>
+    <t>한국마사회, 오는 30일 31일 .제1회 한국마사회 유소년 승마대회. 개최</t>
+  </si>
+  <si>
+    <t>제15회 오너스컵 대상경주, .라온더파이터. 1위 탈환</t>
+  </si>
+  <si>
+    <t>해외 경마팬, .K-경마.에 홀릭..마사회 영상 수출 대박</t>
+  </si>
+  <si>
+    <t>한국마사회, .청렴라이브 콘서트.로 청렴가치 확산</t>
+  </si>
+  <si>
+    <t>부산경남경마공원, 뜨거운 여름을 식혀 줄 .바닥분수. 23일부터 운영 재개</t>
+  </si>
+  <si>
+    <t>LH, 비상경영체제 돌입 .부채감축. 주력</t>
+  </si>
+  <si>
+    <t>.부산출신 최고스타. 유남규 감독, 신생 한국거래소 탁구팀 사령탑 선임</t>
+  </si>
+  <si>
+    <t>.韓경마 100년 결실. 코리아컵 3년 만에 돌아온다</t>
+  </si>
+  <si>
+    <t>한국마사회 정기환 회장이 .상호 존중의 날. 맞아 직원들과 출근길 인사</t>
+  </si>
+  <si>
+    <t>[즐거운 우리 학교] 동물 식품계열 특화학교 .화성 발안바이오과학고. 전국 인재들 몰려온다</t>
+  </si>
+  <si>
+    <t>검찰, 임종석 조국 .블랙리스트. 의혹 수사 본격화</t>
+  </si>
+  <si>
+    <t>인천국제공항공사, 대학생 입사희망 공기업 5년 연속 .1위.</t>
+  </si>
+  <si>
+    <t>청소근로자 생명까지 앗아간 무리수 .비정규직 제로. 정책 [여기는 논설실]</t>
+  </si>
+  <si>
+    <t>장수군, ‘제6회 국산 어린 말 승마대회. 개최</t>
+  </si>
+  <si>
+    <t>한국마사회, 오는 22일까지 .2022년 신입사원 채용. 원서 접수</t>
+  </si>
+  <si>
+    <t>신계용 과천시장, .소통하는 행정 실현. 위해 오는 15일까지 관내 기관 및 사회단체 54곳 방문</t>
+  </si>
+  <si>
+    <t>.유도샛별. 이현지 전도유도대회 3연패 달성</t>
+  </si>
+  <si>
+    <t>중앙지검, 임종석 조국 .블랙리스트. 형사부에 재배당</t>
+  </si>
+  <si>
+    <t>검찰, 文 정부 블랙리스트 의혹 .반부패부→형사부. 재배당</t>
+  </si>
+  <si>
+    <t>한국마사회, 소통하는 조교사 .마방. 신장개업</t>
+  </si>
+  <si>
+    <t>경기도, 사회적경제기업 판로 확대 .경사났네 판매대전. 개최</t>
+  </si>
+  <si>
+    <t>한국마사회, 경마 건전화 정착 위한 .건전화 실무 협의체. 운영</t>
+  </si>
+  <si>
+    <t>.소주성. 주도한 홍장표도 .버티기. ‘적과의 동침’ 불편한 尹정부 [이슈+]</t>
+  </si>
+  <si>
+    <t>21세기 K-팝아트 .관우와 적토마.</t>
+  </si>
+  <si>
+    <t>대전 코레일, 지난해 공기업 중 .징계 최다.</t>
+  </si>
+  <si>
+    <t>부채비율 200% 넘는 공기업 .정조준. 자산매각 잇따를듯</t>
+  </si>
+  <si>
+    <t>[공기UP, 현장에서]운동에 심리 치유까지 승마 .국민 스포츠. 되는 날</t>
+  </si>
+  <si>
+    <t>작년 공기업 징계 고발 665건 .징계 최다. 코레일</t>
+  </si>
+  <si>
+    <t>한국마사회, 인사아트센터 .한국경마 100년 신바람 100선. 개최</t>
+  </si>
+  <si>
+    <t>한국마사회, .한국경마 100년. 특별전시</t>
+  </si>
+  <si>
+    <t>경영평가 .D. 마사회, 회장 등 성과급 자율 반납</t>
+  </si>
+  <si>
+    <t>한국마사회, 100승 달성 .영광의미소. 정정희 기수</t>
+  </si>
+  <si>
+    <t>한국마사회 렛츠런파크 서울서 .사회적경제 단기기획전....경기도, 참여기업 모집</t>
+  </si>
+  <si>
+    <t>연봉 8천만원 .철밥통. 자본잠식 석탄公마저 따박따박 월급인상</t>
+  </si>
+  <si>
+    <t>한국마사회, 기수 초청 .한국경마 100년 기념 특별전.</t>
+  </si>
+  <si>
+    <t>경기도일자리재단, .사회적경제 공공구매 상담회. 진행</t>
+  </si>
+  <si>
+    <t>경기도일자리재단, 지난 17일 사회적경제 공공구매 상담회 .도내 사회적경제기업 116개사 참여.</t>
+  </si>
+  <si>
+    <t>[굿모닝브리핑] .발사 준비 완료. 누리호, 진짜 위성 싣고 우주로</t>
+  </si>
+  <si>
+    <t>[공공기관 경영평가] 코레일, 가장 낮은 E등급 .낙제점.</t>
+  </si>
+  <si>
+    <t>한전 코레일 LH 경영평가 낙제점 .재무악화. 한전 임원 성과급 반납</t>
+  </si>
+  <si>
+    <t>공공기관 경평서 18개 기관 낙제점 文 .알박기 인사. 기관도 일부 포함</t>
+  </si>
+  <si>
+    <t>코레일 LH 마사회 등 18곳 낙제점 공공기관 .칼바람. 부나</t>
+  </si>
+  <si>
+    <t>한전 등 ‘성과급 자율 반납’ 권고 1000억 적자도 .A등급. 왜?</t>
+  </si>
+  <si>
+    <t>경영평가서 18곳 낙제 공공기관 .칼바람. 부나</t>
+  </si>
+  <si>
+    <t>.찻잔속 태풍. 그친 公기관 평가</t>
+  </si>
+  <si>
+    <t>[단독] 공기업도 .원스트라이크 아웃. 음주운전 한번만 걸려도 퇴출</t>
+  </si>
+  <si>
+    <t>.부동산 투기. LH, 올해는 성과급 받는다 2년 연속 .D등급.인데 왜?</t>
+  </si>
+  <si>
+    <t>코레일 LH 경영평가 .최하위권 한전 기관장 성과급 반납권고</t>
+  </si>
+  <si>
+    <t>18개 공공기관 경영 .낙제점. 코레일 C→E 2단계 하락</t>
+  </si>
+  <si>
+    <t>130개 공공기관 성적표 나왔다 11년 만에 나온 .S등급. 주인공은?</t>
+  </si>
+  <si>
+    <t>공공기관 경영평가...코레일 .아주 미흡. LH .미흡.</t>
+  </si>
+  <si>
+    <t>코레일 공공기관 경영평가 .아주 미흡.</t>
+  </si>
+  <si>
+    <t>[속보] 공운위, .재무상황 악화. 한전에 기관장 성과급 반납 권고</t>
+  </si>
+  <si>
+    <t>公기관 경영평가 .미흡 이하. 18곳 성과급 .0. 한전 9개 자회사 자율반납(상보)</t>
+  </si>
+  <si>
+    <t>부경경마공원, 경주마 넋 기리는 .말위령제. 시행</t>
+  </si>
+  <si>
+    <t>양하은, 봄철실업탁구 전관왕....내 전성기는 지금!.</t>
+  </si>
+  <si>
+    <t>한국마사회, 100년의 영광 .서울경마공원 기념관. 특별전시공간 마련</t>
+  </si>
+  <si>
+    <t>한국마사회, 정기환 마사회장 등 임원 6명 .청렴 리더십 고위직 과정. 참여</t>
+  </si>
+  <si>
+    <t>광주 동구, 저소득층 위한 푸드마켓 개설 .눈길.</t>
+  </si>
+  <si>
+    <t>.오라스타. 제주마 절대강자 입증</t>
+  </si>
+  <si>
+    <t>한국마사회, .중대재해 ZERO. 사업장 다짐 .각오.</t>
+  </si>
+  <si>
+    <t>한국마사회, 한국경마 100주년 기념 가상경마 이벤트 .100투더 트랙!. 경주마 선정 국민투표 진행</t>
+  </si>
+  <si>
+    <t>한국마사회, 한국경마 100년 기념 .말럽 백허그 챌린지. 진행</t>
+  </si>
+  <si>
+    <t>한국마사회, 세계 최고 경주마 .닉스고. 명예 우체국장 임명</t>
+  </si>
+  <si>
+    <t>한국마사회, 제26회 말사진 공모전 .세기를 박차다. 개최</t>
+  </si>
+  <si>
+    <t>한국마사회, .2022K-농산어촌 한마당. 말산업 홍보 예정</t>
+  </si>
+  <si>
+    <t>한국마사회 경주마 닉스고, 메릴랜드주 .명예 우체국장.</t>
+  </si>
+  <si>
+    <t>한국마사회 경주마 닉스고, 미국에서 .명예 우체국장. 선임</t>
+  </si>
+  <si>
+    <t>한국마사회, 화성 에코팜랜드 .제 5차 이사회. 개최</t>
+  </si>
+  <si>
+    <t>2년 만에 열린 제21회 YTN배 경마대회...우승은 .위너스맨.</t>
+  </si>
+  <si>
+    <t>한국마사회, 한국경마 100년 .2022년 윤리경영계획. 추진</t>
+  </si>
+  <si>
+    <t>한국마사회, 말박물관 특별전 .한국경마 100년 신바람 100선. 마련</t>
+  </si>
+  <si>
+    <t>한국마사회,.한국경마 100주년. 기념식 개최</t>
+  </si>
+  <si>
+    <t>.VISION 2037, 글로벌 TOP 5 말산업 선도기업.</t>
+  </si>
+  <si>
+    <t>한국마사회 .경마 100주년. 기념식 .2037년까지 세계 톱5. 비전 선포</t>
+  </si>
+  <si>
+    <t>한국경마 100년 기념식 개최 .15년내 글로벌 탑5 진입. 목표</t>
+  </si>
+  <si>
+    <t>.韓경마 100주년. 마사회, 세계 5위 도약 새 비전 선포</t>
+  </si>
+  <si>
+    <t>한국마사회, 건전 경마 위한 .국민참여 모니터링단. 발대식</t>
+  </si>
+  <si>
+    <t>농진원, 마사회와 사회적 책임 강화 .청년창업 육성지원. 협약</t>
+  </si>
+  <si>
+    <t>한국마사회, 100주년 기념 .제25회 코리안더비. 개최</t>
+  </si>
+  <si>
+    <t>8억원대 불법 경마 사이트 운영 .덜미.</t>
+  </si>
+  <si>
+    <t>울산 공공기관 절반 이상 .흑자 전환.</t>
+  </si>
+  <si>
+    <t>이천 설성초 전교생 승마로 자신감 .쑥쑥.</t>
+  </si>
+  <si>
+    <t>文 정부 공공기관 비정규직 10만 명 정규직 됐지만 다수는 .자회사.</t>
+  </si>
+  <si>
+    <t>문 대통령 5년 .공공 비정규직. 절반 넘게 줄여</t>
+  </si>
+  <si>
+    <t>한국마사회, 해외로 뻗는 경마사업 .100년 밝힐 新성장 동력. 역할 기대</t>
+  </si>
+  <si>
+    <t>부경경마공원, 8일 .제23회 코리안오크스. 대상경주 개최</t>
+  </si>
+  <si>
+    <t>한국마사회 부산동구지사, 도시재생마을 .노인 일자리창출 및 지역발전. 업무협약 체결</t>
+  </si>
+  <si>
+    <t>[6 1 지방선거 격전지 분석-영천시장] 박영환 .보수텃밭서 시장직 탈환. VS 최기문 .무소속 재선 도전.</t>
+  </si>
+  <si>
+    <t>文 블랙리스트 .나비효과....저승사자.가 된 공기업 경영평가</t>
+  </si>
+  <si>
+    <t>제20회 헤럴드경제배 대상경주 영광의 우승컵 주인공은 .위너스맨.</t>
+  </si>
+  <si>
+    <t>.어마어마. 제16회 부산일보배 대상경주 우승</t>
+  </si>
+  <si>
+    <t>돌아온 .삐약이. 신유빈, 확 어려진 한국탁구 이끈다</t>
+  </si>
+  <si>
+    <t>마사회탁구단, .데플림픽. 대표 선수에 재능 기부</t>
+  </si>
+  <si>
+    <t>한국마사회, 위기 극복 .상생과 혁신. 발표</t>
+  </si>
+  <si>
+    <t>부경경마공원, 24일 .제16회 부산일보배. 대상경주 개최</t>
+  </si>
+  <si>
+    <t>[뉴스분석] .공공기관장.에 칼 뺀 尹인수위 文정부 인사 .물갈이 신호탄.</t>
+  </si>
+  <si>
+    <t>부경경마공원, 말 통한 치유 홀스테라피 시행 .주목.</t>
+  </si>
+  <si>
+    <t>렛츠런파크, 자연과 말과 함께하는 치유 .홀스테라피(Horse therapy).</t>
+  </si>
+  <si>
+    <t>[홍천]홍천군 ‘한국 대표 탁구도시. 급부상</t>
+  </si>
+  <si>
+    <t>부경경마공원, 17일 .제18회 KRA컵 마일. 대상경주 개최</t>
+  </si>
+  <si>
+    <t>한전 LH 코레일 마사회, 고객만족도 평가 .미흡.</t>
+  </si>
+  <si>
+    <t>LH 코레일 한전 마사회 고객만족도 평가 .미흡.</t>
+  </si>
+  <si>
+    <t>한국마사회 새만금 이전 소식에 과천지역 .시끌.</t>
+  </si>
+  <si>
+    <t>한국마사회 정기환 회장, .서울경마공원. 안전환경 점검</t>
+  </si>
+  <si>
+    <t>한국마사회 새만금 이전? 지방선거 후보자도 입장 .과천 핫이슈 부각.</t>
+  </si>
+  <si>
+    <t>부경경마공원, 15일부터 .드라이브스루 베팅존. 운영</t>
+  </si>
+  <si>
+    <t>한국마사회, .벚꽃 맞집. 서울경마공원 벚꽃길 8일 개방</t>
+  </si>
+  <si>
+    <t>부산경남경마공원 .차 안에서 경마 즐긴다.</t>
+  </si>
+  <si>
+    <t>.탁구명가. 파주 문산수억고 이끄는 신민성 감독</t>
+  </si>
+  <si>
+    <t>한국마사회, 한 세기를 풍미한 한국경마 .공식 엠블럼. 전파</t>
+  </si>
+  <si>
+    <t>한국마사회, .남아공 터키. 국제교류 경주 실시</t>
+  </si>
+  <si>
+    <t>한국마사회, 심판소식지 .스튜어드 나우. 제25호 발간</t>
+  </si>
+  <si>
+    <t>정기환 한국마사회장, 윤리경영 정착 .직무청렴계약. 체결</t>
+  </si>
+  <si>
+    <t>.올탁구나. 멤버들, 탁구 신동 이승수 이예서 남매에 특훈→초등부 선수들과 시합 결과는?[종합]</t>
+  </si>
+  <si>
+    <t>.은지원 팀. 퐁당퐁당, 마사회 프로선수단에 승리(.올탁구나.)</t>
+  </si>
+  <si>
+    <t>.한국경마 100년. 기념 사업 추진위 발족</t>
+  </si>
+  <si>
+    <t>한국마사회, .2022년 공공부문 클라우드 기술선도 프로젝트.에 마권발매 클라우드 개발사업 선정</t>
+  </si>
+  <si>
+    <t>한국마사회, 장애를 넘어서는 .재활승마. 무료강습 모집 실시</t>
+  </si>
+  <si>
+    <t>[석민의News픽] .착한. 윤석열이 내로남불 이중성 문-재명을 결국에는 이긴다?</t>
+  </si>
+  <si>
+    <t>부산시-한국마사회, .2030세계박람회 부산 유치 공동홍보를 위한 업무협약. 체결</t>
+  </si>
+  <si>
+    <t>대전 서구의회, .제4회 거버넌스지방정치대상. 우수상</t>
+  </si>
+  <si>
+    <t>[부산 이모저모] 도보여행길 .YOLO 갈맷길. 선포식 개최 外</t>
+  </si>
+  <si>
+    <t>한국마사회 서울경마공원, 2030 대상 경마 응원 행사 .다시, 봄. 개최</t>
+  </si>
+  <si>
+    <t>한국마사회 .영천경마공원. 설계용역 완료 보고회</t>
+  </si>
+  <si>
+    <t>안산시청 윤현지, 순천만유도 女일반 78㎏급 .천하무적.</t>
+  </si>
+  <si>
+    <t>거제1동, .뽀송뽀송 빨래방에서 마음까지 깨끗해져요.</t>
+  </si>
+  <si>
+    <t>최상대 차관 .한전KDN, YTN 지분 매각? 구체적 논의 없었다.</t>
+  </si>
+  <si>
+    <t>.제주 치안 거버넌스 구축.</t>
+  </si>
+  <si>
+    <t>김희수 도의원 .제5 경마공원 전북에 유치해야.</t>
+  </si>
+  <si>
+    <t>.미래 유망직업은....과천시 청소년 진로 박람회 성료</t>
+  </si>
+  <si>
+    <t>부산경남경마공원 .소셜창업마켓 구경오세요...11월 6일까지 매주 일요일 운영</t>
+  </si>
+  <si>
+    <t>고양시 대화노인종합복지관, 취약계층 생활형 디지털 교육 추진 .키오스크 사용법 배워가세요.</t>
+  </si>
+  <si>
+    <t>[인터뷰] 이민근 안산시장 .창의적 아이디어 도전 대한민국 대표 청년도시 만들 것.</t>
+  </si>
+  <si>
+    <t>.안전한 경마공원에서 고객과 함께합니다.</t>
+  </si>
+  <si>
+    <t>공공기관 노동이사제 4일부터 시행 노동계 .기재부가 권한 축소.</t>
+  </si>
+  <si>
+    <t>정부코드 맞춘다(?) 마사회-노조 .경마산업 발전. 공동선언</t>
+  </si>
+  <si>
+    <t>.안전한 승마. 한국마사회 전국 유소년 승마대회 개막</t>
+  </si>
+  <si>
+    <t>공공기관 .방만. 수술대에 .비핵심자산 팔고 간부 대폭 줄여라.</t>
+  </si>
+  <si>
+    <t>.한국마사회는 제주 마필관리사 직접 고용하라.</t>
+  </si>
+  <si>
+    <t>.3년 만에 가족 물놀이 즐겨요... 경마공원 바닥분수 운영 재개</t>
+  </si>
+  <si>
+    <t>부경경마공원 .빅데이터로 경주마 바뀜 사고 막는다.</t>
+  </si>
+  <si>
+    <t>부산경남경마공원 .빅테이터로 경주마 바뀜 막는다.</t>
+  </si>
+  <si>
+    <t>.文 정부 5년간 공공기관 임직원 수 10만명 늘어.</t>
+  </si>
+  <si>
+    <t>문 정부때 공공기관 인력 30% 늘었다 .증가 인원 10만명 육박.</t>
+  </si>
+  <si>
+    <t>.소통 메시지 전해. 신계용 과천시장, 관내 기관 및 사회단체 54곳 방문</t>
+  </si>
+  <si>
+    <t>신계용 과천시장 .새로운 도약 위해 기관 단체 함께 협력해야.</t>
+  </si>
+  <si>
+    <t>마사회, 올해 신입사원 40명 채용 .투명성 공정성 강화.</t>
+  </si>
+  <si>
+    <t>.3년만에 신입사원 채용. 마사회 올해 40명 뽑는다</t>
+  </si>
+  <si>
+    <t>[단독] .조국 임종석, 반부패부 아닌 형사부서 수사. 전방위 사정 예고</t>
+  </si>
+  <si>
+    <t>한국마사회 부산동구지사, .다양한 취업취약계층의 사회 진줄에 보탬이 되도록 할 것.</t>
+  </si>
+  <si>
+    <t>.코로나19 대응 인력 재충전.</t>
+  </si>
+  <si>
+    <t>[단독] 정부, 호화청사 때리더니 이번엔 .자산 현황 다 내라.</t>
+  </si>
+  <si>
+    <t>.경영부진 책임 지겠다. 마사회, 성과급 반납 결정</t>
+  </si>
+  <si>
+    <t>연봉 깎고, 땅 파는 공공기관 .정부 뜻대로 했다, 억울. 반발</t>
+  </si>
+  <si>
+    <t>.당신 덕분에 오늘도 안녕합니다.</t>
+  </si>
+  <si>
+    <t>.올해 부경경마가 달라졌어요!.</t>
+  </si>
+  <si>
+    <t>.해임 건의 1명, 경고는 10여명. 공공기관장 .물갈이.는</t>
+  </si>
+  <si>
+    <t>.한전 사장, 성과급 반납하라. 해양교통안전공단 .기관장 해임. 건의</t>
+  </si>
+  <si>
+    <t>[속보] 전기료 인상 앞두고 .한전 성과급 토해내라. 자율반납 권고</t>
+  </si>
+  <si>
+    <t>공운위 ..재무 악화. 한전 성과급 반납해. .코레일 아주미흡, LH 미흡.</t>
+  </si>
+  <si>
+    <t>[애니청원] 생존조차 위태로운 퇴역 경주마 .이력제 확대 추진해야.</t>
+  </si>
+  <si>
+    <t>.여름썰매에 승마까지 놀거리 가득. 경마공원 문 .활짝.</t>
+  </si>
+  <si>
+    <t>제주 경마 .다른 말이 뛰었다. 초유의 사태 마권판매액 전액환불 징계</t>
+  </si>
+  <si>
+    <t>광주 동구 .결식 대상자 없도록 . 푸드마켓 개소</t>
+  </si>
+  <si>
+    <t>출전마 바뀐 채 경기한 제주 경마장 .일괄 환불 처리.</t>
+  </si>
+  <si>
+    <t>.구급차 안전 운용 위해. 과천시, 관내 구급차 운용 및 관리 현황 점검 나서</t>
+  </si>
+  <si>
+    <t>.화물연대부터 비정규직까지. 노동계, 서울 곳곳 집회</t>
+  </si>
+  <si>
+    <t>文 정부 .낙하산 聖地. 공기업 .경영 쇄신커녕 파벌 구축 급급.</t>
+  </si>
+  <si>
+    <t>마사회 .한국 말산업, 세계 톱5로.</t>
+  </si>
+  <si>
+    <t>.2037년 말산업 글로벌 5위 도약.</t>
+  </si>
+  <si>
+    <t>이소영 .방위사업청 마사회 이전, 과천시민은 용납 못한다.</t>
+  </si>
+  <si>
+    <t>한국 경마 100주년...마사회 .자랑스러운 K-경마 만들 것.</t>
+  </si>
+  <si>
+    <t>.경마 100돌. 한국마사회 .15년 이내 .세계 톱5. 목표로 달릴 것.</t>
+  </si>
+  <si>
+    <t>.세계가 주목하는 K-경마 실현. 100살 맞는 마사회의 약속</t>
+  </si>
+  <si>
+    <t>.김우남 전 마사회장 보궐선거 출마 규탄.</t>
+  </si>
+  <si>
+    <t>.도시철도 연장. .마사회 이전. 영천시장선거 정책대결 유권자 반긴다</t>
+  </si>
+  <si>
+    <t>..서울숲 승마장. 딱 3일간 임시개방 합니다.</t>
+  </si>
+  <si>
+    <t>.농축산식품분야 청년창업 육성. 농진원-마사회 .맞손.</t>
+  </si>
+  <si>
+    <t>.명예 드높여. 양평군청 유도선수단, .제13회 청풍기전국유도대회. 서 메달 5개 획득</t>
+  </si>
+  <si>
+    <t>문재인 정부 공공기관 정규직 전환 실적 보니 .한전 최다.</t>
+  </si>
+  <si>
+    <t>.E등급 받으면 짤린다....알박기. 사장들, 尹정부 첫 경평에 떤다</t>
+  </si>
+  <si>
+    <t>[단독]감사원 .실적나쁜 공공기관장 감사. 文정부 인사 물갈이?</t>
+  </si>
+  <si>
+    <t>허정환 국민의힘 과천시장 예비후보 .마사회 새만금 이전 사실 무근 확인.</t>
+  </si>
+  <si>
+    <t>부산경남경마공원 .차 안에서도 경마 베팅 가능.</t>
+  </si>
+  <si>
+    <t>한국마사회 정기환 회장, 경남지역 승마시설 방문 .소통해요~.</t>
+  </si>
+  <si>
+    <t>.올탁구나. 현정화 .은퇴한 이유? 지기 싫어서.</t>
+  </si>
+  <si>
+    <t>김기현 .文정권 `알박기 인사` 59명 새정부 발목 잡을 것.</t>
+  </si>
+  <si>
+    <t>국힘 .文 임기말 알박기 59명 민주당 2중대 될 것.</t>
+  </si>
+  <si>
+    <t>김기현 .文정부 .알박기 인사. 59명 세금 축내기 발목 잡기 우려.</t>
+  </si>
+  <si>
+    <t>.年매출 300억 미만이면 56억 적자 매출총량 1000억은 돼야.</t>
+  </si>
+  <si>
+    <t>인수위 .公기관 알박기 인사 현황 내놔라.</t>
+  </si>
+  <si>
+    <t>[단독] 인수위, 기재부에 .임기말 인사 알박기 현황 내놔라.</t>
+  </si>
+  <si>
+    <t>.권력 충돌. 尹 출범전 공공기간 요직 12명 임기 만료 된다</t>
   </si>
 </sst>
 </file>
@@ -3311,13 +3311,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="A162" sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>984</v>
+        <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
@@ -3362,4957 +3364,4957 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>917</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>751</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>752</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>754</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>755</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>918</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>756</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>757</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>758</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>919</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>759</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>760</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>761</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>762</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>920</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>763</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>764</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>765</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>108</v>
+        <v>766</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>109</v>
+        <v>767</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>111</v>
+        <v>768</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>769</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>770</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>125</v>
+        <v>771</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>130</v>
+        <v>921</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>133</v>
+        <v>772</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>134</v>
+        <v>773</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>140</v>
+        <v>774</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>141</v>
+        <v>775</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>147</v>
+        <v>776</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>151</v>
+        <v>777</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>153</v>
+        <v>778</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>155</v>
+        <v>922</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>160</v>
+        <v>779</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>177</v>
+        <v>780</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>178</v>
+        <v>923</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>185</v>
+        <v>781</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>190</v>
+        <v>924</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>191</v>
+        <v>782</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>201</v>
+        <v>783</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>204</v>
+        <v>784</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>207</v>
+        <v>785</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>211</v>
+        <v>786</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>220</v>
+        <v>787</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>229</v>
+        <v>925</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>232</v>
+        <v>788</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>245</v>
+        <v>926</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>254</v>
+        <v>927</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>255</v>
+        <v>789</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>262</v>
+        <v>928</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>267</v>
+        <v>929</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>273</v>
+        <v>790</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>274</v>
+        <v>791</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>275</v>
+        <v>792</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>277</v>
+        <v>793</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>285</v>
+        <v>930</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
-        <v>286</v>
+        <v>228</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>290</v>
+        <v>232</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>291</v>
+        <v>233</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>293</v>
+        <v>235</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>294</v>
+        <v>236</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>295</v>
+        <v>237</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>296</v>
+        <v>238</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
-        <v>301</v>
+        <v>243</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
-        <v>303</v>
+        <v>931</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
-        <v>305</v>
+        <v>794</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
-        <v>309</v>
+        <v>795</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
-        <v>314</v>
+        <v>932</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
-        <v>315</v>
+        <v>253</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
-        <v>317</v>
+        <v>255</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
-        <v>318</v>
+        <v>256</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
-        <v>319</v>
+        <v>257</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
-        <v>322</v>
+        <v>933</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
-        <v>323</v>
+        <v>260</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
-        <v>324</v>
+        <v>796</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
-        <v>325</v>
+        <v>797</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
-        <v>326</v>
+        <v>798</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
-        <v>327</v>
+        <v>261</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
-        <v>328</v>
+        <v>262</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
-        <v>329</v>
+        <v>263</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
-        <v>330</v>
+        <v>264</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
-        <v>331</v>
+        <v>265</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
-        <v>332</v>
+        <v>266</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
-        <v>334</v>
+        <v>268</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
-        <v>336</v>
+        <v>270</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
-        <v>337</v>
+        <v>271</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
-        <v>339</v>
+        <v>273</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
-        <v>340</v>
+        <v>274</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
-        <v>341</v>
+        <v>275</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
-        <v>342</v>
+        <v>276</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
-        <v>343</v>
+        <v>277</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
-        <v>345</v>
+        <v>279</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
-        <v>347</v>
+        <v>799</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
-        <v>348</v>
+        <v>800</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
-        <v>349</v>
+        <v>801</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
-        <v>350</v>
+        <v>281</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
-        <v>351</v>
+        <v>282</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
-        <v>352</v>
+        <v>283</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
-        <v>353</v>
+        <v>284</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
-        <v>354</v>
+        <v>285</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
-        <v>355</v>
+        <v>286</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
-        <v>356</v>
+        <v>287</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
-        <v>357</v>
+        <v>288</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
-        <v>358</v>
+        <v>802</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
-        <v>359</v>
+        <v>803</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
-        <v>360</v>
+        <v>289</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
-        <v>361</v>
+        <v>934</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
-        <v>362</v>
+        <v>290</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
-        <v>363</v>
+        <v>935</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
-        <v>364</v>
+        <v>291</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
-        <v>365</v>
+        <v>292</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
-        <v>366</v>
+        <v>293</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
-        <v>367</v>
+        <v>804</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
-        <v>369</v>
+        <v>936</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
-        <v>370</v>
+        <v>805</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
-        <v>371</v>
+        <v>937</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
-        <v>372</v>
+        <v>806</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
-        <v>373</v>
+        <v>295</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
-        <v>374</v>
+        <v>296</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
-        <v>375</v>
+        <v>938</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A384" t="s">
-        <v>376</v>
+        <v>297</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
-        <v>377</v>
+        <v>298</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
-        <v>378</v>
+        <v>939</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
-        <v>379</v>
+        <v>299</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
-        <v>380</v>
+        <v>300</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
-        <v>381</v>
+        <v>301</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
-        <v>382</v>
+        <v>807</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
-        <v>383</v>
+        <v>302</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A392" t="s">
-        <v>384</v>
+        <v>808</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A393" t="s">
-        <v>385</v>
+        <v>809</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A394" t="s">
-        <v>386</v>
+        <v>303</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A395" t="s">
-        <v>387</v>
+        <v>940</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
-        <v>388</v>
+        <v>304</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A397" t="s">
-        <v>389</v>
+        <v>305</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A398" t="s">
-        <v>390</v>
+        <v>306</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
-        <v>391</v>
+        <v>307</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A400" t="s">
-        <v>392</v>
+        <v>810</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A401" t="s">
-        <v>386</v>
+        <v>303</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A402" t="s">
-        <v>393</v>
+        <v>308</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A403" t="s">
-        <v>394</v>
+        <v>309</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A404" t="s">
-        <v>395</v>
+        <v>811</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A405" t="s">
-        <v>396</v>
+        <v>941</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A406" t="s">
-        <v>397</v>
+        <v>310</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A407" t="s">
-        <v>398</v>
+        <v>311</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A408" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A409" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A410" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A411" t="s">
-        <v>402</v>
+        <v>812</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A412" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A413" t="s">
-        <v>403</v>
+        <v>315</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A414" t="s">
-        <v>404</v>
+        <v>316</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A415" t="s">
-        <v>405</v>
+        <v>317</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A416" t="s">
-        <v>406</v>
+        <v>318</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A417" t="s">
-        <v>407</v>
+        <v>319</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A418" t="s">
-        <v>408</v>
+        <v>320</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A419" t="s">
-        <v>409</v>
+        <v>813</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A420" t="s">
-        <v>410</v>
+        <v>814</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A421" t="s">
-        <v>411</v>
+        <v>321</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A422" t="s">
-        <v>412</v>
+        <v>942</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A423" t="s">
-        <v>413</v>
+        <v>322</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A424" t="s">
-        <v>414</v>
+        <v>323</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A425" t="s">
-        <v>415</v>
+        <v>324</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A426" t="s">
-        <v>416</v>
+        <v>325</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A427" t="s">
-        <v>417</v>
+        <v>326</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A428" t="s">
-        <v>418</v>
+        <v>327</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A429" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A430" t="s">
-        <v>420</v>
+        <v>329</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A431" t="s">
-        <v>421</v>
+        <v>330</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A432" t="s">
-        <v>422</v>
+        <v>331</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A433" t="s">
-        <v>423</v>
+        <v>332</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A434" t="s">
-        <v>424</v>
+        <v>333</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A435" t="s">
-        <v>425</v>
+        <v>334</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A436" t="s">
-        <v>426</v>
+        <v>335</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A437" t="s">
-        <v>427</v>
+        <v>336</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A438" t="s">
-        <v>428</v>
+        <v>337</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A439" t="s">
-        <v>429</v>
+        <v>338</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A440" t="s">
-        <v>430</v>
+        <v>339</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A441" t="s">
-        <v>431</v>
+        <v>815</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A442" t="s">
-        <v>432</v>
+        <v>340</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A443" t="s">
-        <v>433</v>
+        <v>943</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A444" t="s">
-        <v>434</v>
+        <v>816</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A445" t="s">
-        <v>435</v>
+        <v>341</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A446" t="s">
-        <v>436</v>
+        <v>342</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A447" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A448" t="s">
-        <v>438</v>
+        <v>344</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A449" t="s">
-        <v>439</v>
+        <v>345</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A450" t="s">
-        <v>440</v>
+        <v>346</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A451" t="s">
-        <v>441</v>
+        <v>347</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A452" t="s">
-        <v>442</v>
+        <v>348</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A453" t="s">
-        <v>443</v>
+        <v>349</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A454" t="s">
-        <v>444</v>
+        <v>350</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A455" t="s">
-        <v>445</v>
+        <v>351</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A456" t="s">
-        <v>442</v>
+        <v>348</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A457" t="s">
-        <v>446</v>
+        <v>352</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A458" t="s">
-        <v>447</v>
+        <v>353</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A459" t="s">
-        <v>448</v>
+        <v>817</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A460" t="s">
-        <v>449</v>
+        <v>354</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A461" t="s">
-        <v>443</v>
+        <v>349</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A462" t="s">
-        <v>450</v>
+        <v>355</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A463" t="s">
-        <v>451</v>
+        <v>818</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A464" t="s">
-        <v>452</v>
+        <v>356</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A465" t="s">
-        <v>453</v>
+        <v>357</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A466" t="s">
-        <v>454</v>
+        <v>819</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A467" t="s">
-        <v>455</v>
+        <v>358</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A468" t="s">
-        <v>456</v>
+        <v>359</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A469" t="s">
-        <v>457</v>
+        <v>360</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A470" t="s">
-        <v>458</v>
+        <v>820</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A471" t="s">
-        <v>459</v>
+        <v>361</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A472" t="s">
-        <v>460</v>
+        <v>362</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A473" t="s">
-        <v>461</v>
+        <v>363</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A474" t="s">
-        <v>462</v>
+        <v>364</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A475" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A476" t="s">
-        <v>464</v>
+        <v>366</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A477" t="s">
-        <v>465</v>
+        <v>944</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A478" t="s">
-        <v>466</v>
+        <v>367</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A479" t="s">
-        <v>467</v>
+        <v>368</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A480" t="s">
-        <v>468</v>
+        <v>369</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A481" t="s">
-        <v>469</v>
+        <v>370</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A482" t="s">
-        <v>470</v>
+        <v>945</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A483" t="s">
-        <v>471</v>
+        <v>371</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A484" t="s">
-        <v>472</v>
+        <v>372</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A485" t="s">
-        <v>473</v>
+        <v>821</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A486" t="s">
-        <v>474</v>
+        <v>373</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A487" t="s">
-        <v>475</v>
+        <v>374</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A488" t="s">
-        <v>476</v>
+        <v>375</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A489" t="s">
-        <v>477</v>
+        <v>376</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A490" t="s">
-        <v>478</v>
+        <v>377</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A491" t="s">
-        <v>479</v>
+        <v>946</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A492" t="s">
-        <v>480</v>
+        <v>378</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A493" t="s">
-        <v>481</v>
+        <v>379</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A494" t="s">
-        <v>482</v>
+        <v>380</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A495" t="s">
-        <v>483</v>
+        <v>381</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A496" t="s">
-        <v>484</v>
+        <v>382</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A497" t="s">
-        <v>485</v>
+        <v>383</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A498" t="s">
-        <v>486</v>
+        <v>384</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A499" t="s">
-        <v>487</v>
+        <v>385</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A500" t="s">
-        <v>488</v>
+        <v>386</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A501" t="s">
-        <v>489</v>
+        <v>822</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A502" t="s">
-        <v>490</v>
+        <v>387</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A503" t="s">
-        <v>491</v>
+        <v>388</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A504" t="s">
-        <v>492</v>
+        <v>389</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A505" t="s">
-        <v>493</v>
+        <v>390</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A506" t="s">
-        <v>494</v>
+        <v>823</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A507" t="s">
-        <v>495</v>
+        <v>391</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A508" t="s">
-        <v>496</v>
+        <v>392</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A509" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A510" t="s">
-        <v>498</v>
+        <v>393</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A511" t="s">
-        <v>499</v>
+        <v>394</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A512" t="s">
-        <v>500</v>
+        <v>395</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A513" t="s">
-        <v>501</v>
+        <v>396</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A514" t="s">
-        <v>502</v>
+        <v>947</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A515" t="s">
-        <v>503</v>
+        <v>825</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A516" t="s">
-        <v>504</v>
+        <v>397</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A517" t="s">
-        <v>505</v>
+        <v>398</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A518" t="s">
-        <v>506</v>
+        <v>399</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A519" t="s">
-        <v>507</v>
+        <v>400</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A520" t="s">
-        <v>508</v>
+        <v>401</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A521" t="s">
-        <v>509</v>
+        <v>402</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A522" t="s">
-        <v>510</v>
+        <v>403</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A523" t="s">
-        <v>511</v>
+        <v>404</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A524" t="s">
-        <v>512</v>
+        <v>826</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A525" t="s">
-        <v>513</v>
+        <v>405</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A526" t="s">
-        <v>514</v>
+        <v>827</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A527" t="s">
-        <v>515</v>
+        <v>406</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A528" t="s">
-        <v>516</v>
+        <v>407</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A529" t="s">
-        <v>517</v>
+        <v>828</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A530" t="s">
-        <v>518</v>
+        <v>408</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A531" t="s">
-        <v>519</v>
+        <v>409</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A532" t="s">
-        <v>520</v>
+        <v>410</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A533" t="s">
-        <v>521</v>
+        <v>411</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A534" t="s">
-        <v>522</v>
+        <v>412</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A535" t="s">
-        <v>523</v>
+        <v>413</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A536" t="s">
-        <v>524</v>
+        <v>414</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A537" t="s">
-        <v>525</v>
+        <v>415</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A538" t="s">
-        <v>526</v>
+        <v>416</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A539" t="s">
-        <v>527</v>
+        <v>417</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A540" t="s">
-        <v>528</v>
+        <v>418</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A541" t="s">
-        <v>529</v>
+        <v>829</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A542" t="s">
-        <v>530</v>
+        <v>419</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A543" t="s">
-        <v>531</v>
+        <v>420</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A544" t="s">
-        <v>532</v>
+        <v>421</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A545" t="s">
-        <v>533</v>
+        <v>830</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A546" t="s">
-        <v>534</v>
+        <v>831</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A547" t="s">
-        <v>535</v>
+        <v>832</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A548" t="s">
-        <v>536</v>
+        <v>422</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A549" t="s">
-        <v>537</v>
+        <v>833</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A550" t="s">
-        <v>538</v>
+        <v>423</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A551" t="s">
-        <v>539</v>
+        <v>424</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A552" t="s">
-        <v>540</v>
+        <v>425</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A553" t="s">
-        <v>541</v>
+        <v>834</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A554" t="s">
-        <v>542</v>
+        <v>426</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A555" t="s">
-        <v>543</v>
+        <v>835</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A556" t="s">
-        <v>544</v>
+        <v>427</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A557" t="s">
-        <v>545</v>
+        <v>428</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A558" t="s">
-        <v>546</v>
+        <v>836</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A559" t="s">
-        <v>547</v>
+        <v>948</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A560" t="s">
-        <v>548</v>
+        <v>429</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A561" t="s">
-        <v>549</v>
+        <v>837</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A562" t="s">
-        <v>550</v>
+        <v>430</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A563" t="s">
-        <v>551</v>
+        <v>838</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A564" t="s">
-        <v>552</v>
+        <v>431</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A565" t="s">
-        <v>553</v>
+        <v>839</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A566" t="s">
-        <v>554</v>
+        <v>840</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A567" t="s">
-        <v>555</v>
+        <v>841</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A568" t="s">
-        <v>556</v>
+        <v>432</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A569" t="s">
-        <v>557</v>
+        <v>949</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A570" t="s">
-        <v>558</v>
+        <v>433</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A571" t="s">
-        <v>559</v>
+        <v>950</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A572" t="s">
-        <v>560</v>
+        <v>842</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A573" t="s">
-        <v>561</v>
+        <v>843</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A574" t="s">
-        <v>562</v>
+        <v>844</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A575" t="s">
-        <v>563</v>
+        <v>951</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A576" t="s">
-        <v>564</v>
+        <v>434</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A577" t="s">
-        <v>565</v>
+        <v>435</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A578" t="s">
-        <v>566</v>
+        <v>436</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A579" t="s">
-        <v>567</v>
+        <v>437</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A580" t="s">
-        <v>568</v>
+        <v>845</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A581" t="s">
-        <v>569</v>
+        <v>438</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A582" t="s">
-        <v>570</v>
+        <v>439</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A583" t="s">
-        <v>571</v>
+        <v>440</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A584" t="s">
-        <v>572</v>
+        <v>441</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A585" t="s">
-        <v>573</v>
+        <v>442</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A586" t="s">
-        <v>574</v>
+        <v>443</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A587" t="s">
-        <v>575</v>
+        <v>952</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A588" t="s">
-        <v>576</v>
+        <v>846</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A589" t="s">
-        <v>577</v>
+        <v>847</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A590" t="s">
-        <v>578</v>
+        <v>444</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A591" t="s">
-        <v>579</v>
+        <v>848</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A592" t="s">
-        <v>580</v>
+        <v>445</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A593" t="s">
-        <v>581</v>
+        <v>849</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A594" t="s">
-        <v>582</v>
+        <v>446</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A595" t="s">
-        <v>583</v>
+        <v>447</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A596" t="s">
-        <v>584</v>
+        <v>448</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A597" t="s">
-        <v>585</v>
+        <v>449</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A598" t="s">
-        <v>586</v>
+        <v>953</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A599" t="s">
-        <v>587</v>
+        <v>450</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A600" t="s">
-        <v>588</v>
+        <v>451</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A601" t="s">
-        <v>589</v>
+        <v>452</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A602" t="s">
-        <v>590</v>
+        <v>453</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A603" t="s">
-        <v>591</v>
+        <v>954</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A604" t="s">
-        <v>592</v>
+        <v>454</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A605" t="s">
-        <v>593</v>
+        <v>955</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A606" t="s">
-        <v>594</v>
+        <v>455</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A607" t="s">
-        <v>595</v>
+        <v>456</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A608" t="s">
-        <v>596</v>
+        <v>457</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A609" t="s">
-        <v>597</v>
+        <v>458</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A610" t="s">
-        <v>598</v>
+        <v>459</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A611" t="s">
-        <v>599</v>
+        <v>460</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A612" t="s">
-        <v>599</v>
+        <v>460</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A613" t="s">
-        <v>600</v>
+        <v>956</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A614" t="s">
-        <v>601</v>
+        <v>461</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A615" t="s">
-        <v>602</v>
+        <v>462</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A616" t="s">
-        <v>603</v>
+        <v>463</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A617" t="s">
-        <v>604</v>
+        <v>464</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A618" t="s">
-        <v>605</v>
+        <v>957</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A619" t="s">
-        <v>606</v>
+        <v>465</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A620" t="s">
-        <v>607</v>
+        <v>466</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A621" t="s">
-        <v>608</v>
+        <v>850</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A622" t="s">
-        <v>609</v>
+        <v>851</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A623" t="s">
-        <v>610</v>
+        <v>852</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A624" t="s">
-        <v>611</v>
+        <v>467</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A625" t="s">
-        <v>612</v>
+        <v>853</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A626" t="s">
-        <v>613</v>
+        <v>468</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A627" t="s">
-        <v>614</v>
+        <v>469</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A628" t="s">
-        <v>615</v>
+        <v>470</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A629" t="s">
-        <v>616</v>
+        <v>471</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A630" t="s">
-        <v>617</v>
+        <v>472</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A631" t="s">
-        <v>618</v>
+        <v>473</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A632" t="s">
-        <v>619</v>
+        <v>474</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A633" t="s">
-        <v>620</v>
+        <v>475</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A634" t="s">
-        <v>621</v>
+        <v>476</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A635" t="s">
-        <v>622</v>
+        <v>477</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A636" t="s">
-        <v>623</v>
+        <v>478</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A637" t="s">
-        <v>624</v>
+        <v>479</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A638" t="s">
-        <v>625</v>
+        <v>480</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A639" t="s">
-        <v>626</v>
+        <v>481</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A640" t="s">
-        <v>627</v>
+        <v>482</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A641" t="s">
-        <v>628</v>
+        <v>483</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A642" t="s">
-        <v>629</v>
+        <v>854</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A643" t="s">
-        <v>630</v>
+        <v>855</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A644" t="s">
-        <v>631</v>
+        <v>856</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A645" t="s">
-        <v>632</v>
+        <v>484</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A646" t="s">
-        <v>633</v>
+        <v>485</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A647" t="s">
-        <v>634</v>
+        <v>486</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A648" t="s">
-        <v>635</v>
+        <v>857</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A649" t="s">
-        <v>636</v>
+        <v>487</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A650" t="s">
-        <v>632</v>
+        <v>484</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A651" t="s">
-        <v>637</v>
+        <v>488</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A652" t="s">
-        <v>638</v>
+        <v>858</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A653" t="s">
-        <v>639</v>
+        <v>489</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A654" t="s">
-        <v>632</v>
+        <v>484</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A655" t="s">
-        <v>640</v>
+        <v>490</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A656" t="s">
-        <v>641</v>
+        <v>859</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A657" t="s">
-        <v>642</v>
+        <v>860</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A658" t="s">
-        <v>643</v>
+        <v>491</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A659" t="s">
-        <v>644</v>
+        <v>492</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A660" t="s">
-        <v>645</v>
+        <v>493</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A661" t="s">
-        <v>646</v>
+        <v>494</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A662" t="s">
-        <v>647</v>
+        <v>495</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A663" t="s">
-        <v>648</v>
+        <v>958</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A664" t="s">
-        <v>649</v>
+        <v>496</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A665" t="s">
-        <v>650</v>
+        <v>497</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A666" t="s">
-        <v>651</v>
+        <v>498</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A667" t="s">
-        <v>652</v>
+        <v>499</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A668" t="s">
-        <v>653</v>
+        <v>500</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A669" t="s">
-        <v>654</v>
+        <v>501</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A670" t="s">
-        <v>655</v>
+        <v>502</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A671" t="s">
-        <v>656</v>
+        <v>861</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A672" t="s">
-        <v>657</v>
+        <v>503</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A673" t="s">
-        <v>658</v>
+        <v>504</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A674" t="s">
-        <v>659</v>
+        <v>505</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A675" t="s">
-        <v>660</v>
+        <v>506</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A676" t="s">
-        <v>661</v>
+        <v>507</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A677" t="s">
-        <v>662</v>
+        <v>508</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A678" t="s">
-        <v>663</v>
+        <v>509</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A679" t="s">
-        <v>664</v>
+        <v>959</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A680" t="s">
-        <v>665</v>
+        <v>510</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A681" t="s">
-        <v>666</v>
+        <v>511</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A682" t="s">
-        <v>667</v>
+        <v>512</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A683" t="s">
-        <v>668</v>
+        <v>513</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A684" t="s">
-        <v>669</v>
+        <v>514</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A685" t="s">
-        <v>670</v>
+        <v>515</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A686" t="s">
-        <v>671</v>
+        <v>516</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A687" t="s">
-        <v>672</v>
+        <v>517</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A688" t="s">
-        <v>673</v>
+        <v>518</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A689" t="s">
-        <v>674</v>
+        <v>519</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A690" t="s">
-        <v>675</v>
+        <v>520</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A691" t="s">
-        <v>676</v>
+        <v>521</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A692" t="s">
-        <v>677</v>
+        <v>522</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A693" t="s">
-        <v>678</v>
+        <v>523</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A694" t="s">
-        <v>679</v>
+        <v>862</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A695" t="s">
-        <v>680</v>
+        <v>524</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A696" t="s">
-        <v>681</v>
+        <v>960</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A697" t="s">
-        <v>682</v>
+        <v>525</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A698" t="s">
-        <v>683</v>
+        <v>526</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A699" t="s">
-        <v>684</v>
+        <v>527</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A700" t="s">
-        <v>685</v>
+        <v>528</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A701" t="s">
-        <v>686</v>
+        <v>529</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A702" t="s">
-        <v>687</v>
+        <v>961</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A703" t="s">
-        <v>688</v>
+        <v>530</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A704" t="s">
-        <v>689</v>
+        <v>531</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A705" t="s">
-        <v>690</v>
+        <v>962</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A706" t="s">
-        <v>691</v>
+        <v>863</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A707" t="s">
-        <v>689</v>
+        <v>531</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A708" t="s">
-        <v>692</v>
+        <v>532</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A709" t="s">
-        <v>693</v>
+        <v>963</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A710" t="s">
-        <v>694</v>
+        <v>964</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A711" t="s">
-        <v>695</v>
+        <v>864</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A712" t="s">
-        <v>696</v>
+        <v>865</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A713" t="s">
-        <v>697</v>
+        <v>533</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A714" t="s">
-        <v>698</v>
+        <v>866</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A715" t="s">
-        <v>699</v>
+        <v>534</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A716" t="s">
-        <v>700</v>
+        <v>535</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A717" t="s">
-        <v>701</v>
+        <v>536</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A718" t="s">
-        <v>702</v>
+        <v>965</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A719" t="s">
-        <v>703</v>
+        <v>537</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A720" t="s">
-        <v>704</v>
+        <v>538</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A721" t="s">
-        <v>705</v>
+        <v>867</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A722" t="s">
-        <v>706</v>
+        <v>966</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A723" t="s">
-        <v>707</v>
+        <v>967</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A724" t="s">
-        <v>708</v>
+        <v>539</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A725" t="s">
-        <v>709</v>
+        <v>540</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A726" t="s">
-        <v>710</v>
+        <v>541</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A727" t="s">
-        <v>711</v>
+        <v>542</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A728" t="s">
-        <v>712</v>
+        <v>543</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A729" t="s">
-        <v>713</v>
+        <v>968</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A730" t="s">
-        <v>714</v>
+        <v>868</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A731" t="s">
-        <v>715</v>
+        <v>544</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A732" t="s">
-        <v>716</v>
+        <v>545</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A733" t="s">
-        <v>717</v>
+        <v>546</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A734" t="s">
-        <v>718</v>
+        <v>869</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A735" t="s">
-        <v>719</v>
+        <v>547</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A736" t="s">
-        <v>720</v>
+        <v>548</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A737" t="s">
-        <v>721</v>
+        <v>870</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A738" t="s">
-        <v>722</v>
+        <v>549</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A739" t="s">
-        <v>723</v>
+        <v>969</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A740" t="s">
-        <v>724</v>
+        <v>550</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A741" t="s">
-        <v>725</v>
+        <v>551</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A742" t="s">
-        <v>726</v>
+        <v>552</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A743" t="s">
-        <v>727</v>
+        <v>871</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A744" t="s">
-        <v>728</v>
+        <v>553</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A745" t="s">
-        <v>729</v>
+        <v>554</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A746" t="s">
-        <v>730</v>
+        <v>555</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A747" t="s">
-        <v>731</v>
+        <v>556</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A748" t="s">
-        <v>732</v>
+        <v>557</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A749" t="s">
-        <v>733</v>
+        <v>558</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A750" t="s">
-        <v>734</v>
+        <v>559</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A751" t="s">
-        <v>735</v>
+        <v>560</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A752" t="s">
-        <v>736</v>
+        <v>561</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A753" t="s">
-        <v>737</v>
+        <v>562</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A754" t="s">
-        <v>738</v>
+        <v>563</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A755" t="s">
-        <v>739</v>
+        <v>872</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A756" t="s">
-        <v>740</v>
+        <v>564</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A757" t="s">
-        <v>741</v>
+        <v>565</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A758" t="s">
-        <v>742</v>
+        <v>566</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A759" t="s">
-        <v>743</v>
+        <v>567</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A760" t="s">
-        <v>744</v>
+        <v>568</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A761" t="s">
-        <v>745</v>
+        <v>569</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A762" t="s">
-        <v>746</v>
+        <v>570</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A763" t="s">
-        <v>747</v>
+        <v>571</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A764" t="s">
-        <v>748</v>
+        <v>572</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A765" t="s">
-        <v>749</v>
+        <v>573</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A766" t="s">
-        <v>750</v>
+        <v>574</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A767" t="s">
-        <v>751</v>
+        <v>575</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A768" t="s">
-        <v>752</v>
+        <v>576</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A769" t="s">
-        <v>753</v>
+        <v>577</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A770" t="s">
-        <v>754</v>
+        <v>578</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A771" t="s">
-        <v>755</v>
+        <v>579</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A772" t="s">
-        <v>756</v>
+        <v>873</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A773" t="s">
-        <v>757</v>
+        <v>580</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A774" t="s">
-        <v>758</v>
+        <v>874</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A775" t="s">
-        <v>759</v>
+        <v>875</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A776" t="s">
-        <v>760</v>
+        <v>581</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A777" t="s">
-        <v>761</v>
+        <v>970</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A778" t="s">
-        <v>762</v>
+        <v>582</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A779" t="s">
-        <v>763</v>
+        <v>583</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A780" t="s">
-        <v>764</v>
+        <v>584</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A781" t="s">
-        <v>765</v>
+        <v>971</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A782" t="s">
-        <v>766</v>
+        <v>585</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A783" t="s">
-        <v>767</v>
+        <v>586</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A784" t="s">
-        <v>768</v>
+        <v>876</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A785" t="s">
-        <v>769</v>
+        <v>587</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A786" t="s">
-        <v>770</v>
+        <v>588</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A787" t="s">
-        <v>771</v>
+        <v>589</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A788" t="s">
-        <v>772</v>
+        <v>590</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A789" t="s">
-        <v>773</v>
+        <v>591</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A790" t="s">
-        <v>774</v>
+        <v>592</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A791" t="s">
-        <v>775</v>
+        <v>593</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A792" t="s">
-        <v>776</v>
+        <v>594</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A793" t="s">
-        <v>777</v>
+        <v>595</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A794" t="s">
-        <v>778</v>
+        <v>877</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A795" t="s">
-        <v>779</v>
+        <v>596</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A796" t="s">
-        <v>780</v>
+        <v>597</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A797" t="s">
-        <v>781</v>
+        <v>598</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A798" t="s">
-        <v>782</v>
+        <v>599</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A799" t="s">
-        <v>783</v>
+        <v>600</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A800" t="s">
-        <v>784</v>
+        <v>601</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A801" t="s">
-        <v>785</v>
+        <v>602</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A802" t="s">
-        <v>786</v>
+        <v>603</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A803" t="s">
-        <v>787</v>
+        <v>604</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A804" t="s">
-        <v>788</v>
+        <v>605</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A805" t="s">
-        <v>789</v>
+        <v>606</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A806" t="s">
-        <v>790</v>
+        <v>607</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A807" t="s">
-        <v>791</v>
+        <v>878</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A808" t="s">
-        <v>792</v>
+        <v>608</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A809" t="s">
-        <v>793</v>
+        <v>609</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A810" t="s">
-        <v>794</v>
+        <v>879</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A811" t="s">
-        <v>795</v>
+        <v>880</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A812" t="s">
-        <v>796</v>
+        <v>972</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A813" t="s">
-        <v>797</v>
+        <v>610</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A814" t="s">
-        <v>798</v>
+        <v>611</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A815" t="s">
-        <v>799</v>
+        <v>612</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A816" t="s">
-        <v>800</v>
+        <v>613</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A817" t="s">
-        <v>801</v>
+        <v>881</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A818" t="s">
-        <v>802</v>
+        <v>614</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A819" t="s">
-        <v>803</v>
+        <v>615</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A820" t="s">
-        <v>804</v>
+        <v>616</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A821" t="s">
-        <v>805</v>
+        <v>617</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A822" t="s">
-        <v>806</v>
+        <v>618</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A823" t="s">
-        <v>807</v>
+        <v>882</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A824" t="s">
-        <v>808</v>
+        <v>619</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A825" t="s">
-        <v>809</v>
+        <v>620</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A826" t="s">
-        <v>810</v>
+        <v>621</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A827" t="s">
-        <v>811</v>
+        <v>622</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A828" t="s">
-        <v>812</v>
+        <v>623</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A829" t="s">
-        <v>813</v>
+        <v>624</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A830" t="s">
-        <v>814</v>
+        <v>625</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A831" t="s">
-        <v>815</v>
+        <v>883</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A832" t="s">
-        <v>816</v>
+        <v>884</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A833" t="s">
-        <v>816</v>
+        <v>884</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A834" t="s">
-        <v>817</v>
+        <v>626</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A835" t="s">
-        <v>818</v>
+        <v>627</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A836" t="s">
-        <v>819</v>
+        <v>628</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A837" t="s">
-        <v>820</v>
+        <v>885</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A838" t="s">
-        <v>821</v>
+        <v>629</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A839" t="s">
-        <v>822</v>
+        <v>630</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A840" t="s">
-        <v>823</v>
+        <v>631</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A841" t="s">
-        <v>824</v>
+        <v>632</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A842" t="s">
-        <v>825</v>
+        <v>633</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A843" t="s">
-        <v>826</v>
+        <v>634</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A844" t="s">
-        <v>827</v>
+        <v>635</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A845" t="s">
-        <v>828</v>
+        <v>636</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A846" t="s">
-        <v>829</v>
+        <v>637</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A847" t="s">
-        <v>830</v>
+        <v>886</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A848" t="s">
-        <v>831</v>
+        <v>638</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A849" t="s">
-        <v>832</v>
+        <v>639</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A850" t="s">
-        <v>833</v>
+        <v>887</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A851" t="s">
-        <v>834</v>
+        <v>640</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A852" t="s">
-        <v>835</v>
+        <v>641</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A853" t="s">
-        <v>836</v>
+        <v>642</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A854" t="s">
-        <v>837</v>
+        <v>643</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A855" t="s">
-        <v>838</v>
+        <v>644</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A856" t="s">
-        <v>839</v>
+        <v>645</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A857" t="s">
-        <v>840</v>
+        <v>973</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A858" t="s">
-        <v>841</v>
+        <v>646</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A859" t="s">
-        <v>842</v>
+        <v>888</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A860" t="s">
-        <v>843</v>
+        <v>647</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A861" t="s">
-        <v>844</v>
+        <v>648</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A862" t="s">
-        <v>845</v>
+        <v>649</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A863" t="s">
-        <v>846</v>
+        <v>650</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A864" t="s">
-        <v>847</v>
+        <v>651</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A865" t="s">
-        <v>848</v>
+        <v>889</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A866" t="s">
-        <v>849</v>
+        <v>890</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A867" t="s">
-        <v>850</v>
+        <v>652</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A868" t="s">
-        <v>851</v>
+        <v>891</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A869" t="s">
-        <v>852</v>
+        <v>653</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A870" t="s">
-        <v>853</v>
+        <v>654</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A871" t="s">
-        <v>854</v>
+        <v>655</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A872" t="s">
-        <v>855</v>
+        <v>656</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A873" t="s">
-        <v>856</v>
+        <v>657</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A874" t="s">
-        <v>857</v>
+        <v>658</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A875" t="s">
-        <v>858</v>
+        <v>659</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A876" t="s">
-        <v>859</v>
+        <v>660</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A877" t="s">
-        <v>860</v>
+        <v>661</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A878" t="s">
-        <v>861</v>
+        <v>662</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A879" t="s">
-        <v>862</v>
+        <v>663</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A880" t="s">
-        <v>863</v>
+        <v>664</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A881" t="s">
-        <v>864</v>
+        <v>892</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A882" t="s">
-        <v>865</v>
+        <v>665</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A883" t="s">
-        <v>866</v>
+        <v>666</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A884" t="s">
-        <v>867</v>
+        <v>893</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A885" t="s">
-        <v>868</v>
+        <v>667</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A886" t="s">
-        <v>869</v>
+        <v>668</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A887" t="s">
-        <v>870</v>
+        <v>894</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A888" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A889" t="s">
-        <v>872</v>
+        <v>974</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A890" t="s">
-        <v>873</v>
+        <v>896</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A891" t="s">
-        <v>874</v>
+        <v>669</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A892" t="s">
-        <v>875</v>
+        <v>670</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A893" t="s">
-        <v>876</v>
+        <v>671</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A894" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A895" t="s">
-        <v>878</v>
+        <v>672</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A896" t="s">
-        <v>879</v>
+        <v>673</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A897" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A898" t="s">
-        <v>881</v>
+        <v>674</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A899" t="s">
-        <v>882</v>
+        <v>675</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A900" t="s">
-        <v>883</v>
+        <v>676</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A901" t="s">
-        <v>884</v>
+        <v>975</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A902" t="s">
-        <v>885</v>
+        <v>677</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A903" t="s">
-        <v>886</v>
+        <v>678</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A904" t="s">
-        <v>887</v>
+        <v>679</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A905" t="s">
-        <v>888</v>
+        <v>680</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A906" t="s">
-        <v>889</v>
+        <v>681</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A907" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A908" t="s">
-        <v>891</v>
+        <v>682</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A909" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A910" t="s">
-        <v>893</v>
+        <v>683</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A911" t="s">
-        <v>894</v>
+        <v>684</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A912" t="s">
-        <v>895</v>
+        <v>685</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A913" t="s">
-        <v>896</v>
+        <v>686</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A914" t="s">
-        <v>897</v>
+        <v>687</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A915" t="s">
-        <v>898</v>
+        <v>688</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A916" t="s">
-        <v>899</v>
+        <v>689</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A917" t="s">
-        <v>900</v>
+        <v>690</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A918" t="s">
-        <v>901</v>
+        <v>691</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A919" t="s">
-        <v>902</v>
+        <v>692</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A920" t="s">
-        <v>903</v>
+        <v>693</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A921" t="s">
-        <v>904</v>
+        <v>976</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A922" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A923" t="s">
-        <v>906</v>
+        <v>694</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A924" t="s">
-        <v>907</v>
+        <v>695</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A925" t="s">
-        <v>908</v>
+        <v>696</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A926" t="s">
-        <v>909</v>
+        <v>697</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A927" t="s">
-        <v>910</v>
+        <v>698</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A928" t="s">
-        <v>911</v>
+        <v>699</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A929" t="s">
-        <v>912</v>
+        <v>700</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A930" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A931" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A932" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A933" t="s">
-        <v>916</v>
+        <v>701</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A934" t="s">
-        <v>917</v>
+        <v>702</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A935" t="s">
-        <v>918</v>
+        <v>703</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A936" t="s">
-        <v>919</v>
+        <v>704</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A937" t="s">
-        <v>920</v>
+        <v>705</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A938" t="s">
-        <v>921</v>
+        <v>706</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A939" t="s">
-        <v>922</v>
+        <v>707</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A940" t="s">
-        <v>923</v>
+        <v>905</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A941" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A942" t="s">
-        <v>925</v>
+        <v>977</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A943" t="s">
-        <v>926</v>
+        <v>708</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A944" t="s">
-        <v>927</v>
+        <v>709</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A945" t="s">
-        <v>928</v>
+        <v>710</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A946" t="s">
-        <v>929</v>
+        <v>711</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A947" t="s">
-        <v>930</v>
+        <v>907</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A948" t="s">
-        <v>931</v>
+        <v>712</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A949" t="s">
-        <v>932</v>
+        <v>713</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A950" t="s">
-        <v>933</v>
+        <v>714</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A951" t="s">
-        <v>934</v>
+        <v>978</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A952" t="s">
-        <v>935</v>
+        <v>908</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A953" t="s">
-        <v>936</v>
+        <v>715</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A954" t="s">
-        <v>937</v>
+        <v>979</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A955" t="s">
-        <v>938</v>
+        <v>716</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A956" t="s">
-        <v>939</v>
+        <v>980</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A957" t="s">
-        <v>940</v>
+        <v>981</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A958" t="s">
-        <v>941</v>
+        <v>717</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A959" t="s">
-        <v>942</v>
+        <v>718</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A960" t="s">
-        <v>943</v>
+        <v>719</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A961" t="s">
-        <v>944</v>
+        <v>720</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A962" t="s">
-        <v>945</v>
+        <v>721</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A963" t="s">
-        <v>946</v>
+        <v>982</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A964" t="s">
-        <v>947</v>
+        <v>983</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A965" t="s">
-        <v>948</v>
+        <v>722</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A966" t="s">
-        <v>949</v>
+        <v>723</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A967" t="s">
-        <v>950</v>
+        <v>724</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A968" t="s">
-        <v>951</v>
+        <v>725</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A969" t="s">
-        <v>952</v>
+        <v>726</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A970" t="s">
-        <v>953</v>
+        <v>727</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A971" t="s">
-        <v>954</v>
+        <v>728</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A972" t="s">
-        <v>955</v>
+        <v>909</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A973" t="s">
-        <v>956</v>
+        <v>984</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A974" t="s">
-        <v>957</v>
+        <v>729</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A975" t="s">
-        <v>958</v>
+        <v>730</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A976" t="s">
-        <v>959</v>
+        <v>731</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A977" t="s">
-        <v>960</v>
+        <v>732</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A978" t="s">
-        <v>961</v>
+        <v>733</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A979" t="s">
-        <v>962</v>
+        <v>910</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A980" t="s">
-        <v>963</v>
+        <v>734</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A981" t="s">
-        <v>964</v>
+        <v>735</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A982" t="s">
-        <v>965</v>
+        <v>736</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A983" t="s">
-        <v>966</v>
+        <v>911</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A984" t="s">
-        <v>967</v>
+        <v>737</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A985" t="s">
-        <v>968</v>
+        <v>738</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A986" t="s">
-        <v>969</v>
+        <v>912</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A987" t="s">
-        <v>970</v>
+        <v>739</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A988" t="s">
-        <v>971</v>
+        <v>740</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A989" t="s">
-        <v>972</v>
+        <v>913</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A990" t="s">
-        <v>973</v>
+        <v>741</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A991" t="s">
-        <v>974</v>
+        <v>742</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A992" t="s">
-        <v>975</v>
+        <v>914</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A993" t="s">
-        <v>976</v>
+        <v>743</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A994" t="s">
-        <v>977</v>
+        <v>744</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A995" t="s">
-        <v>978</v>
+        <v>915</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A996" t="s">
-        <v>979</v>
+        <v>745</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A997" t="s">
-        <v>980</v>
+        <v>746</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A998" t="s">
-        <v>981</v>
+        <v>747</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A999" t="s">
-        <v>982</v>
+        <v>748</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1000" t="s">
-        <v>983</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
